--- a/Subresultados/50tries/xlsx/CHC450.xlsx
+++ b/Subresultados/50tries/xlsx/CHC450.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Manuel\Desktop\TFG_IRENE\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="CHC" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="CHC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,328 +26,310 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
-    <t xml:space="preserve">milestone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F97</t>
+    <t>milestone</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F52</t>
+  </si>
+  <si>
+    <t>F53</t>
+  </si>
+  <si>
+    <t>F54</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F56</t>
+  </si>
+  <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>F58</t>
+  </si>
+  <si>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>F60</t>
+  </si>
+  <si>
+    <t>F61</t>
+  </si>
+  <si>
+    <t>F62</t>
+  </si>
+  <si>
+    <t>F63</t>
+  </si>
+  <si>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F66</t>
+  </si>
+  <si>
+    <t>F67</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>F69</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F71</t>
+  </si>
+  <si>
+    <t>F72</t>
+  </si>
+  <si>
+    <t>F73</t>
+  </si>
+  <si>
+    <t>F74</t>
+  </si>
+  <si>
+    <t>F75</t>
+  </si>
+  <si>
+    <t>F76</t>
+  </si>
+  <si>
+    <t>F77</t>
+  </si>
+  <si>
+    <t>F78</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
+    <t>F82</t>
+  </si>
+  <si>
+    <t>F83</t>
+  </si>
+  <si>
+    <t>F84</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>F86</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>F88</t>
+  </si>
+  <si>
+    <t>F89</t>
+  </si>
+  <si>
+    <t>F90</t>
+  </si>
+  <si>
+    <t>F91</t>
+  </si>
+  <si>
+    <t>F92</t>
+  </si>
+  <si>
+    <t>F93</t>
+  </si>
+  <si>
+    <t>F94</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>F96</t>
+  </si>
+  <si>
+    <t>F97</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -355,7 +341,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -363,4510 +349,4751 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:CT15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CT23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:CT15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:CT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="2" style="0" width="7.95"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="14" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AY1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BA1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="BD1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BE1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BF1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BG1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BH1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BI1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="0" t="s">
+      <c r="BJ1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BK1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="0" t="s">
+      <c r="BL1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="0" t="s">
+      <c r="BM1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="0" t="s">
+      <c r="BN1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="0" t="s">
+      <c r="BO1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="0" t="s">
+      <c r="BP1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="0" t="s">
+      <c r="BQ1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="0" t="s">
+      <c r="BR1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="0" t="s">
+      <c r="BS1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="0" t="s">
+      <c r="BT1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="0" t="s">
+      <c r="BU1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="0" t="s">
+      <c r="BV1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="0" t="s">
+      <c r="BW1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="0" t="s">
+      <c r="BX1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="0" t="s">
+      <c r="BY1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="0" t="s">
+      <c r="BZ1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="0" t="s">
+      <c r="CA1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="0" t="s">
+      <c r="CB1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="0" t="s">
+      <c r="CC1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="0" t="s">
+      <c r="CD1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="0" t="s">
+      <c r="CE1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="0" t="s">
+      <c r="CF1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="0" t="s">
+      <c r="CG1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="0" t="s">
+      <c r="CH1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="0" t="s">
+      <c r="CI1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="0" t="s">
+      <c r="CJ1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="0" t="s">
+      <c r="CK1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="0" t="s">
+      <c r="CL1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="0" t="s">
+      <c r="CM1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="0" t="s">
+      <c r="CN1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="0" t="s">
+      <c r="CO1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="0" t="s">
+      <c r="CP1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="0" t="s">
+      <c r="CQ1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="0" t="s">
+      <c r="CR1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="0" t="s">
+      <c r="CS1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="0" t="s">
+      <c r="CT1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>183969</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>70420.6</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="C2">
+        <v>70420.600000000006</v>
+      </c>
+      <c r="D2">
         <v>181783</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>215402</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>220061</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>62494.4</v>
-      </c>
-      <c r="H2" s="0" t="n">
+      <c r="G2">
+        <v>62494.400000000001</v>
+      </c>
+      <c r="H2">
         <v>2582.06</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>51366.7</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2">
         <v>225932</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2">
         <v>21638</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2">
         <v>16157.8</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2">
         <v>52271.8</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2">
         <v>949.92</v>
       </c>
-      <c r="O2" s="0" t="n">
-        <v>47407.2</v>
-      </c>
-      <c r="P2" s="0" t="n">
+      <c r="O2">
+        <v>47407.199999999997</v>
+      </c>
+      <c r="P2">
         <v>59098.7</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2">
         <v>32646.9</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2">
         <v>11997.1</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2">
         <v>17652.8</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2">
         <v>31767</v>
       </c>
-      <c r="U2" s="0" t="n">
-        <v>82895.1</v>
-      </c>
-      <c r="V2" s="0" t="n">
+      <c r="U2">
+        <v>82895.100000000006</v>
+      </c>
+      <c r="V2">
         <v>77029</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2">
         <v>99602.6</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2">
         <v>28823.1</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2">
         <v>99746.3</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="Z2">
         <v>49132</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AA2">
         <v>12764.9</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AB2">
         <v>45701.8</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AC2">
         <v>47912.3</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AD2">
         <v>62105.5</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AE2">
         <v>135715</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AF2">
         <v>188355</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2">
         <v>87421.6</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AH2">
         <v>51330.5</v>
       </c>
-      <c r="AI2" s="0" t="n">
-        <v>65557.1</v>
-      </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AI2">
+        <v>65557.100000000006</v>
+      </c>
+      <c r="AJ2">
         <v>21638.1</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AK2">
         <v>137242</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AL2">
         <v>103018</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AM2">
         <v>14198.4</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AN2">
         <v>95241.9</v>
       </c>
-      <c r="AO2" s="0" t="n">
+      <c r="AO2">
         <v>312548</v>
       </c>
-      <c r="AP2" s="0" t="n">
+      <c r="AP2">
         <v>908827</v>
       </c>
-      <c r="AQ2" s="0" t="n">
+      <c r="AQ2">
         <v>237585</v>
       </c>
-      <c r="AR2" s="0" t="n">
-        <v>4356.1</v>
-      </c>
-      <c r="AS2" s="0" t="n">
+      <c r="AR2">
+        <v>4356.1000000000004</v>
+      </c>
+      <c r="AS2">
         <v>22610.6</v>
       </c>
-      <c r="AT2" s="0" t="n">
+      <c r="AT2">
         <v>737877</v>
       </c>
-      <c r="AU2" s="0" t="n">
+      <c r="AU2">
         <v>5459.18</v>
       </c>
-      <c r="AV2" s="0" t="n">
+      <c r="AV2">
         <v>648260</v>
       </c>
-      <c r="AW2" s="0" t="n">
+      <c r="AW2">
         <v>733616</v>
       </c>
-      <c r="AX2" s="0" t="n">
+      <c r="AX2">
         <v>580898</v>
       </c>
-      <c r="AY2" s="0" t="n">
-        <v>35535.8</v>
-      </c>
-      <c r="AZ2" s="0" t="n">
+      <c r="AY2">
+        <v>35535.800000000003</v>
+      </c>
+      <c r="AZ2">
         <v>190442</v>
       </c>
-      <c r="BA2" s="0" t="n">
+      <c r="BA2">
         <v>227939</v>
       </c>
-      <c r="BB2" s="0" t="n">
+      <c r="BB2">
         <v>207378</v>
       </c>
-      <c r="BC2" s="0" t="n">
+      <c r="BC2">
         <v>172650</v>
       </c>
-      <c r="BD2" s="0" t="n">
+      <c r="BD2">
         <v>65252.7</v>
       </c>
-      <c r="BE2" s="0" t="n">
+      <c r="BE2">
         <v>45106.5</v>
       </c>
-      <c r="BF2" s="0" t="n">
+      <c r="BF2">
         <v>132169</v>
       </c>
-      <c r="BG2" s="0" t="n">
-        <v>38112.7</v>
-      </c>
-      <c r="BH2" s="0" t="n">
+      <c r="BG2">
+        <v>38112.699999999997</v>
+      </c>
+      <c r="BH2">
         <v>252684</v>
       </c>
-      <c r="BI2" s="0" t="n">
+      <c r="BI2">
         <v>340278</v>
       </c>
-      <c r="BJ2" s="0" t="n">
+      <c r="BJ2">
         <v>181920</v>
       </c>
-      <c r="BK2" s="0" t="n">
+      <c r="BK2">
         <v>187944</v>
       </c>
-      <c r="BL2" s="0" t="n">
+      <c r="BL2">
         <v>190338</v>
       </c>
-      <c r="BM2" s="0" t="n">
+      <c r="BM2">
         <v>467065</v>
       </c>
-      <c r="BN2" s="0" t="n">
+      <c r="BN2">
         <v>403388</v>
       </c>
-      <c r="BO2" s="0" t="n">
+      <c r="BO2">
         <v>187560</v>
       </c>
-      <c r="BP2" s="0" t="n">
+      <c r="BP2">
         <v>285269</v>
       </c>
-      <c r="BQ2" s="0" t="n">
+      <c r="BQ2">
         <v>78952.5</v>
       </c>
-      <c r="BR2" s="0" t="n">
+      <c r="BR2">
         <v>102845</v>
       </c>
-      <c r="BS2" s="0" t="n">
+      <c r="BS2">
         <v>399047</v>
       </c>
-      <c r="BT2" s="0" t="n">
+      <c r="BT2">
         <v>236087</v>
       </c>
-      <c r="BU2" s="0" t="n">
+      <c r="BU2">
         <v>10544.3</v>
       </c>
-      <c r="BV2" s="0" t="n">
+      <c r="BV2">
         <v>91055.5</v>
       </c>
-      <c r="BW2" s="0" t="n">
+      <c r="BW2">
         <v>99364.4</v>
       </c>
-      <c r="BX2" s="0" t="n">
+      <c r="BX2">
         <v>182599</v>
       </c>
-      <c r="BY2" s="0" t="n">
+      <c r="BY2">
         <v>219878</v>
       </c>
-      <c r="BZ2" s="0" t="n">
+      <c r="BZ2">
         <v>562314</v>
       </c>
-      <c r="CA2" s="0" t="n">
+      <c r="CA2">
         <v>476309</v>
       </c>
-      <c r="CB2" s="0" t="n">
+      <c r="CB2">
         <v>340427</v>
       </c>
-      <c r="CC2" s="0" t="n">
+      <c r="CC2">
         <v>3252.54</v>
       </c>
-      <c r="CD2" s="0" t="n">
+      <c r="CD2">
         <v>236344</v>
       </c>
-      <c r="CE2" s="0" t="n">
+      <c r="CE2">
         <v>407023</v>
       </c>
-      <c r="CF2" s="0" t="n">
+      <c r="CF2">
         <v>1389.58</v>
       </c>
-      <c r="CG2" s="0" t="n">
+      <c r="CG2">
         <v>218178</v>
       </c>
-      <c r="CH2" s="0" t="n">
+      <c r="CH2">
         <v>451943</v>
       </c>
-      <c r="CI2" s="0" t="n">
+      <c r="CI2">
         <v>857.72</v>
       </c>
-      <c r="CJ2" s="0" t="n">
+      <c r="CJ2">
         <v>199763</v>
       </c>
-      <c r="CK2" s="0" t="n">
+      <c r="CK2">
         <v>919625</v>
       </c>
-      <c r="CL2" s="0" t="n">
+      <c r="CL2">
         <v>412982</v>
       </c>
-      <c r="CM2" s="0" t="n">
+      <c r="CM2">
         <v>20129</v>
       </c>
-      <c r="CN2" s="0" t="n">
+      <c r="CN2">
         <v>810205</v>
       </c>
-      <c r="CO2" s="0" t="n">
+      <c r="CO2">
         <v>225904</v>
       </c>
-      <c r="CP2" s="0" t="n">
+      <c r="CP2">
         <v>654614</v>
       </c>
-      <c r="CQ2" s="0" t="n">
+      <c r="CQ2">
         <v>657791</v>
       </c>
-      <c r="CR2" s="0" t="n">
+      <c r="CR2">
         <v>5004.82</v>
       </c>
-      <c r="CS2" s="0" t="n">
+      <c r="CS2">
         <v>689018</v>
       </c>
-      <c r="CT2" s="0" t="n">
+      <c r="CT2">
         <v>689271</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>185184</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>72644.6</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="C3">
+        <v>72644.600000000006</v>
+      </c>
+      <c r="D3">
         <v>183329</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>218133</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>222294</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>65812.3</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>2702.04</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>54026.3</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>225933</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3">
         <v>22484</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3">
         <v>16732.8</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3">
         <v>53050.2</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3">
         <v>2146.44</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3">
         <v>47831.5</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3">
         <v>59098.7</v>
       </c>
-      <c r="Q3" s="0" t="n">
-        <v>33508.2</v>
-      </c>
-      <c r="R3" s="0" t="n">
+      <c r="Q3">
+        <v>33508.199999999997</v>
+      </c>
+      <c r="R3">
         <v>12569.1</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="S3">
         <v>18101.7</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="T3">
         <v>32621.1</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="U3">
         <v>84098.6</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="V3">
         <v>78268.5</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="W3">
         <v>100279</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="X3">
         <v>30073.8</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Y3">
         <v>100471</v>
       </c>
-      <c r="Z3" s="0" t="n">
-        <v>51062.4</v>
-      </c>
-      <c r="AA3" s="0" t="n">
+      <c r="Z3">
+        <v>51062.400000000001</v>
+      </c>
+      <c r="AA3">
         <v>13371.9</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AB3">
         <v>47336.6</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AC3">
         <v>49235.1</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AD3">
         <v>63292.9</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AE3">
         <v>137370</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AF3">
         <v>188355</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AG3">
         <v>89789.3</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AH3">
         <v>53843.6</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AI3">
         <v>66874</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AJ3">
         <v>22805.1</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AK3">
         <v>138623</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AL3">
         <v>104576</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AM3">
         <v>15072.2</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AN3">
         <v>97807.3</v>
       </c>
-      <c r="AO3" s="0" t="n">
+      <c r="AO3">
         <v>327146</v>
       </c>
-      <c r="AP3" s="0" t="n">
+      <c r="AP3">
         <v>908827</v>
       </c>
-      <c r="AQ3" s="0" t="n">
+      <c r="AQ3">
         <v>245554</v>
       </c>
-      <c r="AR3" s="0" t="n">
-        <v>4356.1</v>
-      </c>
-      <c r="AS3" s="0" t="n">
+      <c r="AR3">
+        <v>4356.1000000000004</v>
+      </c>
+      <c r="AS3">
         <v>50757.1</v>
       </c>
-      <c r="AT3" s="0" t="n">
+      <c r="AT3">
         <v>743697</v>
       </c>
-      <c r="AU3" s="0" t="n">
+      <c r="AU3">
         <v>5459.18</v>
       </c>
-      <c r="AV3" s="0" t="n">
+      <c r="AV3">
         <v>654935</v>
       </c>
-      <c r="AW3" s="0" t="n">
+      <c r="AW3">
         <v>740377</v>
       </c>
-      <c r="AX3" s="0" t="n">
+      <c r="AX3">
         <v>590386</v>
       </c>
-      <c r="AY3" s="0" t="n">
+      <c r="AY3">
         <v>37400.5</v>
       </c>
-      <c r="AZ3" s="0" t="n">
+      <c r="AZ3">
         <v>191941</v>
       </c>
-      <c r="BA3" s="0" t="n">
+      <c r="BA3">
         <v>227939</v>
       </c>
-      <c r="BB3" s="0" t="n">
+      <c r="BB3">
         <v>209622</v>
       </c>
-      <c r="BC3" s="0" t="n">
+      <c r="BC3">
         <v>174821</v>
       </c>
-      <c r="BD3" s="0" t="n">
+      <c r="BD3">
         <v>67195.7</v>
       </c>
-      <c r="BE3" s="0" t="n">
+      <c r="BE3">
         <v>46714.3</v>
       </c>
-      <c r="BF3" s="0" t="n">
+      <c r="BF3">
         <v>135311</v>
       </c>
-      <c r="BG3" s="0" t="n">
-        <v>39440.4</v>
-      </c>
-      <c r="BH3" s="0" t="n">
+      <c r="BG3">
+        <v>39440.400000000001</v>
+      </c>
+      <c r="BH3">
         <v>259196</v>
       </c>
-      <c r="BI3" s="0" t="n">
+      <c r="BI3">
         <v>343522</v>
       </c>
-      <c r="BJ3" s="0" t="n">
+      <c r="BJ3">
         <v>188234</v>
       </c>
-      <c r="BK3" s="0" t="n">
+      <c r="BK3">
         <v>196023</v>
       </c>
-      <c r="BL3" s="0" t="n">
+      <c r="BL3">
         <v>197127</v>
       </c>
-      <c r="BM3" s="0" t="n">
+      <c r="BM3">
         <v>467065</v>
       </c>
-      <c r="BN3" s="0" t="n">
+      <c r="BN3">
         <v>406904</v>
       </c>
-      <c r="BO3" s="0" t="n">
+      <c r="BO3">
         <v>195581</v>
       </c>
-      <c r="BP3" s="0" t="n">
+      <c r="BP3">
         <v>290782</v>
       </c>
-      <c r="BQ3" s="0" t="n">
+      <c r="BQ3">
         <v>82557.7</v>
       </c>
-      <c r="BR3" s="0" t="n">
+      <c r="BR3">
         <v>107181</v>
       </c>
-      <c r="BS3" s="0" t="n">
+      <c r="BS3">
         <v>407256</v>
       </c>
-      <c r="BT3" s="0" t="n">
+      <c r="BT3">
         <v>246133</v>
       </c>
-      <c r="BU3" s="0" t="n">
+      <c r="BU3">
         <v>10768.8</v>
       </c>
-      <c r="BV3" s="0" t="n">
+      <c r="BV3">
         <v>95061.3</v>
       </c>
-      <c r="BW3" s="0" t="n">
+      <c r="BW3">
         <v>102942</v>
       </c>
-      <c r="BX3" s="0" t="n">
+      <c r="BX3">
         <v>190978</v>
       </c>
-      <c r="BY3" s="0" t="n">
+      <c r="BY3">
         <v>227598</v>
       </c>
-      <c r="BZ3" s="0" t="n">
+      <c r="BZ3">
         <v>565670</v>
       </c>
-      <c r="CA3" s="0" t="n">
+      <c r="CA3">
         <v>482569</v>
       </c>
-      <c r="CB3" s="0" t="n">
+      <c r="CB3">
         <v>345933</v>
       </c>
-      <c r="CC3" s="0" t="n">
+      <c r="CC3">
         <v>3252.54</v>
       </c>
-      <c r="CD3" s="0" t="n">
+      <c r="CD3">
         <v>243877</v>
       </c>
-      <c r="CE3" s="0" t="n">
+      <c r="CE3">
         <v>410541</v>
       </c>
-      <c r="CF3" s="0" t="n">
+      <c r="CF3">
         <v>1389.58</v>
       </c>
-      <c r="CG3" s="0" t="n">
+      <c r="CG3">
         <v>227251</v>
       </c>
-      <c r="CH3" s="0" t="n">
+      <c r="CH3">
         <v>453267</v>
       </c>
-      <c r="CI3" s="0" t="n">
+      <c r="CI3">
         <v>857.72</v>
       </c>
-      <c r="CJ3" s="0" t="n">
+      <c r="CJ3">
         <v>209257</v>
       </c>
-      <c r="CK3" s="0" t="n">
+      <c r="CK3">
         <v>931424</v>
       </c>
-      <c r="CL3" s="0" t="n">
+      <c r="CL3">
         <v>435470</v>
       </c>
-      <c r="CM3" s="0" t="n">
+      <c r="CM3">
         <v>28755.5</v>
       </c>
-      <c r="CN3" s="0" t="n">
+      <c r="CN3">
         <v>814038</v>
       </c>
-      <c r="CO3" s="0" t="n">
+      <c r="CO3">
         <v>236386</v>
       </c>
-      <c r="CP3" s="0" t="n">
+      <c r="CP3">
         <v>664794</v>
       </c>
-      <c r="CQ3" s="0" t="n">
+      <c r="CQ3">
         <v>673017</v>
       </c>
-      <c r="CR3" s="0" t="n">
+      <c r="CR3">
         <v>5004.82</v>
       </c>
-      <c r="CS3" s="0" t="n">
+      <c r="CS3">
         <v>698789</v>
       </c>
-      <c r="CT3" s="0" t="n">
+      <c r="CT3">
         <v>699220</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>186197</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>73930.7</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>184324</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>219317</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>223360</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>67058.8</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>6871.9</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>55187.8</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>227003</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>22827.7</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4">
         <v>17051.2</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4">
         <v>53617.8</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4">
         <v>3206.6</v>
       </c>
-      <c r="O4" s="0" t="n">
-        <v>48084.8</v>
-      </c>
-      <c r="P4" s="0" t="n">
+      <c r="O4">
+        <v>48084.800000000003</v>
+      </c>
+      <c r="P4">
         <v>59295</v>
       </c>
-      <c r="Q4" s="0" t="n">
-        <v>33825.3</v>
-      </c>
-      <c r="R4" s="0" t="n">
+      <c r="Q4">
+        <v>33825.300000000003</v>
+      </c>
+      <c r="R4">
         <v>12867.2</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4">
         <v>18433.3</v>
       </c>
-      <c r="T4" s="0" t="n">
-        <v>32890.3</v>
-      </c>
-      <c r="U4" s="0" t="n">
+      <c r="T4">
+        <v>32890.300000000003</v>
+      </c>
+      <c r="U4">
         <v>84690.9</v>
       </c>
-      <c r="V4" s="0" t="n">
-        <v>79012.4</v>
-      </c>
-      <c r="W4" s="0" t="n">
+      <c r="V4">
+        <v>79012.399999999994</v>
+      </c>
+      <c r="W4">
         <v>100699</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="X4">
         <v>30535.9</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Y4">
         <v>101186</v>
       </c>
-      <c r="Z4" s="0" t="n">
-        <v>51700.8</v>
-      </c>
-      <c r="AA4" s="0" t="n">
+      <c r="Z4">
+        <v>51700.800000000003</v>
+      </c>
+      <c r="AA4">
         <v>13690.9</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AB4">
         <v>48120.4</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AC4">
         <v>49980.2</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AD4">
         <v>63939</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AE4">
         <v>138005</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AF4">
         <v>188355</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AG4">
         <v>90255.7</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AH4">
         <v>54659.8</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AI4">
         <v>67422.5</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AJ4">
         <v>23708</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AK4">
         <v>139491</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AL4">
         <v>105048</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AM4">
         <v>15794.8</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AN4">
         <v>98588.7</v>
       </c>
-      <c r="AO4" s="0" t="n">
+      <c r="AO4">
         <v>331844</v>
       </c>
-      <c r="AP4" s="0" t="n">
+      <c r="AP4">
         <v>908827</v>
       </c>
-      <c r="AQ4" s="0" t="n">
+      <c r="AQ4">
         <v>249823</v>
       </c>
-      <c r="AR4" s="0" t="n">
-        <v>4356.1</v>
-      </c>
-      <c r="AS4" s="0" t="n">
-        <v>65573.1</v>
-      </c>
-      <c r="AT4" s="0" t="n">
+      <c r="AR4">
+        <v>4356.1000000000004</v>
+      </c>
+      <c r="AS4">
+        <v>65573.100000000006</v>
+      </c>
+      <c r="AT4">
         <v>746804</v>
       </c>
-      <c r="AU4" s="0" t="n">
+      <c r="AU4">
         <v>5459.18</v>
       </c>
-      <c r="AV4" s="0" t="n">
+      <c r="AV4">
         <v>657925</v>
       </c>
-      <c r="AW4" s="0" t="n">
+      <c r="AW4">
         <v>743839</v>
       </c>
-      <c r="AX4" s="0" t="n">
+      <c r="AX4">
         <v>592745</v>
       </c>
-      <c r="AY4" s="0" t="n">
+      <c r="AY4">
         <v>38359.9</v>
       </c>
-      <c r="AZ4" s="0" t="n">
+      <c r="AZ4">
         <v>192431</v>
       </c>
-      <c r="BA4" s="0" t="n">
+      <c r="BA4">
         <v>228118</v>
       </c>
-      <c r="BB4" s="0" t="n">
+      <c r="BB4">
         <v>210625</v>
       </c>
-      <c r="BC4" s="0" t="n">
+      <c r="BC4">
         <v>175446</v>
       </c>
-      <c r="BD4" s="0" t="n">
-        <v>67961.4</v>
-      </c>
-      <c r="BE4" s="0" t="n">
+      <c r="BD4">
+        <v>67961.399999999994</v>
+      </c>
+      <c r="BE4">
         <v>47319.1</v>
       </c>
-      <c r="BF4" s="0" t="n">
+      <c r="BF4">
         <v>135991</v>
       </c>
-      <c r="BG4" s="0" t="n">
-        <v>39893.8</v>
-      </c>
-      <c r="BH4" s="0" t="n">
+      <c r="BG4">
+        <v>39893.800000000003</v>
+      </c>
+      <c r="BH4">
         <v>262244</v>
       </c>
-      <c r="BI4" s="0" t="n">
+      <c r="BI4">
         <v>344852</v>
       </c>
-      <c r="BJ4" s="0" t="n">
+      <c r="BJ4">
         <v>190348</v>
       </c>
-      <c r="BK4" s="0" t="n">
+      <c r="BK4">
         <v>197748</v>
       </c>
-      <c r="BL4" s="0" t="n">
+      <c r="BL4">
         <v>198935</v>
       </c>
-      <c r="BM4" s="0" t="n">
+      <c r="BM4">
         <v>467065</v>
       </c>
-      <c r="BN4" s="0" t="n">
+      <c r="BN4">
         <v>409324</v>
       </c>
-      <c r="BO4" s="0" t="n">
+      <c r="BO4">
         <v>197905</v>
       </c>
-      <c r="BP4" s="0" t="n">
+      <c r="BP4">
         <v>292981</v>
       </c>
-      <c r="BQ4" s="0" t="n">
-        <v>83669.4</v>
-      </c>
-      <c r="BR4" s="0" t="n">
+      <c r="BQ4">
+        <v>83669.399999999994</v>
+      </c>
+      <c r="BR4">
         <v>110057</v>
       </c>
-      <c r="BS4" s="0" t="n">
+      <c r="BS4">
         <v>410115</v>
       </c>
-      <c r="BT4" s="0" t="n">
+      <c r="BT4">
         <v>249129</v>
       </c>
-      <c r="BU4" s="0" t="n">
+      <c r="BU4">
         <v>21700.6</v>
       </c>
-      <c r="BV4" s="0" t="n">
+      <c r="BV4">
         <v>97307.9</v>
       </c>
-      <c r="BW4" s="0" t="n">
+      <c r="BW4">
         <v>106083</v>
       </c>
-      <c r="BX4" s="0" t="n">
+      <c r="BX4">
         <v>192940</v>
       </c>
-      <c r="BY4" s="0" t="n">
+      <c r="BY4">
         <v>230478</v>
       </c>
-      <c r="BZ4" s="0" t="n">
+      <c r="BZ4">
         <v>568378</v>
       </c>
-      <c r="CA4" s="0" t="n">
+      <c r="CA4">
         <v>483735</v>
       </c>
-      <c r="CB4" s="0" t="n">
+      <c r="CB4">
         <v>347146</v>
       </c>
-      <c r="CC4" s="0" t="n">
+      <c r="CC4">
         <v>3252.54</v>
       </c>
-      <c r="CD4" s="0" t="n">
+      <c r="CD4">
         <v>246479</v>
       </c>
-      <c r="CE4" s="0" t="n">
+      <c r="CE4">
         <v>412040</v>
       </c>
-      <c r="CF4" s="0" t="n">
+      <c r="CF4">
         <v>1389.58</v>
       </c>
-      <c r="CG4" s="0" t="n">
+      <c r="CG4">
         <v>229352</v>
       </c>
-      <c r="CH4" s="0" t="n">
+      <c r="CH4">
         <v>455107</v>
       </c>
-      <c r="CI4" s="0" t="n">
+      <c r="CI4">
         <v>857.72</v>
       </c>
-      <c r="CJ4" s="0" t="n">
+      <c r="CJ4">
         <v>210868</v>
       </c>
-      <c r="CK4" s="0" t="n">
+      <c r="CK4">
         <v>939262</v>
       </c>
-      <c r="CL4" s="0" t="n">
+      <c r="CL4">
         <v>438881</v>
       </c>
-      <c r="CM4" s="0" t="n">
+      <c r="CM4">
         <v>42080.2</v>
       </c>
-      <c r="CN4" s="0" t="n">
+      <c r="CN4">
         <v>817344</v>
       </c>
-      <c r="CO4" s="0" t="n">
+      <c r="CO4">
         <v>239103</v>
       </c>
-      <c r="CP4" s="0" t="n">
+      <c r="CP4">
         <v>668515</v>
       </c>
-      <c r="CQ4" s="0" t="n">
+      <c r="CQ4">
         <v>677189</v>
       </c>
-      <c r="CR4" s="0" t="n">
+      <c r="CR4">
         <v>5004.82</v>
       </c>
-      <c r="CS4" s="0" t="n">
+      <c r="CS4">
         <v>701724</v>
       </c>
-      <c r="CT4" s="0" t="n">
+      <c r="CT4">
         <v>701605</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>187707</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>75985.6</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5">
+        <v>75985.600000000006</v>
+      </c>
+      <c r="D5">
         <v>185419</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>220656</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>225463</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>69200.1</v>
-      </c>
-      <c r="H5" s="0" t="n">
+      <c r="G5">
+        <v>69200.100000000006</v>
+      </c>
+      <c r="H5">
         <v>9547.4</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>57201.2</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>230718</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <v>23223.2</v>
-      </c>
-      <c r="L5" s="0" t="n">
+      <c r="K5">
+        <v>23223.200000000001</v>
+      </c>
+      <c r="L5">
         <v>17514</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5">
         <v>54172.3</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5">
         <v>3513.14</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5">
         <v>48596.7</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5">
         <v>60085</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5">
         <v>34521.4</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5">
         <v>13606</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5">
         <v>19160.2</v>
       </c>
-      <c r="T5" s="0" t="n">
-        <v>33402.4</v>
-      </c>
-      <c r="U5" s="0" t="n">
+      <c r="T5">
+        <v>33402.400000000001</v>
+      </c>
+      <c r="U5">
         <v>85773.8</v>
       </c>
-      <c r="V5" s="0" t="n">
-        <v>80040.9</v>
-      </c>
-      <c r="W5" s="0" t="n">
+      <c r="V5">
+        <v>80040.899999999994</v>
+      </c>
+      <c r="W5">
         <v>101461</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="X5">
         <v>31806.2</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Y5">
         <v>102360</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="Z5">
         <v>53004.5</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AA5">
         <v>14483.1</v>
       </c>
-      <c r="AB5" s="0" t="n">
-        <v>49370.4</v>
-      </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AB5">
+        <v>49370.400000000001</v>
+      </c>
+      <c r="AC5">
         <v>51240.3</v>
       </c>
-      <c r="AD5" s="0" t="n">
-        <v>64906.4</v>
-      </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AD5">
+        <v>64906.400000000001</v>
+      </c>
+      <c r="AE5">
         <v>139369</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AF5">
         <v>188355</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AG5">
         <v>91327.6</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AH5">
         <v>56446.7</v>
       </c>
-      <c r="AI5" s="0" t="n">
-        <v>68687.1</v>
-      </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AI5">
+        <v>68687.100000000006</v>
+      </c>
+      <c r="AJ5">
         <v>25433.3</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AK5">
         <v>140544</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AL5">
         <v>106462</v>
       </c>
-      <c r="AM5" s="0" t="n">
-        <v>17256.1</v>
-      </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AM5">
+        <v>17256.099999999999</v>
+      </c>
+      <c r="AN5">
         <v>100108</v>
       </c>
-      <c r="AO5" s="0" t="n">
+      <c r="AO5">
         <v>337440</v>
       </c>
-      <c r="AP5" s="0" t="n">
+      <c r="AP5">
         <v>908985</v>
       </c>
-      <c r="AQ5" s="0" t="n">
+      <c r="AQ5">
         <v>259699</v>
       </c>
-      <c r="AR5" s="0" t="n">
-        <v>4356.1</v>
-      </c>
-      <c r="AS5" s="0" t="n">
-        <v>72325.9</v>
-      </c>
-      <c r="AT5" s="0" t="n">
+      <c r="AR5">
+        <v>4356.1000000000004</v>
+      </c>
+      <c r="AS5">
+        <v>72325.899999999994</v>
+      </c>
+      <c r="AT5">
         <v>750324</v>
       </c>
-      <c r="AU5" s="0" t="n">
+      <c r="AU5">
         <v>5459.18</v>
       </c>
-      <c r="AV5" s="0" t="n">
+      <c r="AV5">
         <v>664852</v>
       </c>
-      <c r="AW5" s="0" t="n">
+      <c r="AW5">
         <v>749683</v>
       </c>
-      <c r="AX5" s="0" t="n">
+      <c r="AX5">
         <v>597510</v>
       </c>
-      <c r="AY5" s="0" t="n">
-        <v>39659.2</v>
-      </c>
-      <c r="AZ5" s="0" t="n">
+      <c r="AY5">
+        <v>39659.199999999997</v>
+      </c>
+      <c r="AZ5">
         <v>193867</v>
       </c>
-      <c r="BA5" s="0" t="n">
+      <c r="BA5">
         <v>230298</v>
       </c>
-      <c r="BB5" s="0" t="n">
+      <c r="BB5">
         <v>212414</v>
       </c>
-      <c r="BC5" s="0" t="n">
+      <c r="BC5">
         <v>177303</v>
       </c>
-      <c r="BD5" s="0" t="n">
-        <v>70422.1</v>
-      </c>
-      <c r="BE5" s="0" t="n">
+      <c r="BD5">
+        <v>70422.100000000006</v>
+      </c>
+      <c r="BE5">
         <v>49027.8</v>
       </c>
-      <c r="BF5" s="0" t="n">
+      <c r="BF5">
         <v>137384</v>
       </c>
-      <c r="BG5" s="0" t="n">
+      <c r="BG5">
         <v>41576.1</v>
       </c>
-      <c r="BH5" s="0" t="n">
+      <c r="BH5">
         <v>264583</v>
       </c>
-      <c r="BI5" s="0" t="n">
+      <c r="BI5">
         <v>347885</v>
       </c>
-      <c r="BJ5" s="0" t="n">
+      <c r="BJ5">
         <v>192762</v>
       </c>
-      <c r="BK5" s="0" t="n">
+      <c r="BK5">
         <v>202276</v>
       </c>
-      <c r="BL5" s="0" t="n">
+      <c r="BL5">
         <v>202658</v>
       </c>
-      <c r="BM5" s="0" t="n">
+      <c r="BM5">
         <v>467065</v>
       </c>
-      <c r="BN5" s="0" t="n">
+      <c r="BN5">
         <v>411638</v>
       </c>
-      <c r="BO5" s="0" t="n">
+      <c r="BO5">
         <v>200988</v>
       </c>
-      <c r="BP5" s="0" t="n">
+      <c r="BP5">
         <v>297110</v>
       </c>
-      <c r="BQ5" s="0" t="n">
+      <c r="BQ5">
         <v>87889</v>
       </c>
-      <c r="BR5" s="0" t="n">
+      <c r="BR5">
         <v>115688</v>
       </c>
-      <c r="BS5" s="0" t="n">
+      <c r="BS5">
         <v>414323</v>
       </c>
-      <c r="BT5" s="0" t="n">
+      <c r="BT5">
         <v>254080</v>
       </c>
-      <c r="BU5" s="0" t="n">
+      <c r="BU5">
         <v>42585.8</v>
       </c>
-      <c r="BV5" s="0" t="n">
+      <c r="BV5">
         <v>101396</v>
       </c>
-      <c r="BW5" s="0" t="n">
+      <c r="BW5">
         <v>110439</v>
       </c>
-      <c r="BX5" s="0" t="n">
+      <c r="BX5">
         <v>197442</v>
       </c>
-      <c r="BY5" s="0" t="n">
+      <c r="BY5">
         <v>235582</v>
       </c>
-      <c r="BZ5" s="0" t="n">
+      <c r="BZ5">
         <v>572787</v>
       </c>
-      <c r="CA5" s="0" t="n">
+      <c r="CA5">
         <v>487088</v>
       </c>
-      <c r="CB5" s="0" t="n">
+      <c r="CB5">
         <v>349431</v>
       </c>
-      <c r="CC5" s="0" t="n">
+      <c r="CC5">
         <v>3252.54</v>
       </c>
-      <c r="CD5" s="0" t="n">
+      <c r="CD5">
         <v>249912</v>
       </c>
-      <c r="CE5" s="0" t="n">
+      <c r="CE5">
         <v>415353</v>
       </c>
-      <c r="CF5" s="0" t="n">
+      <c r="CF5">
         <v>1389.58</v>
       </c>
-      <c r="CG5" s="0" t="n">
+      <c r="CG5">
         <v>233276</v>
       </c>
-      <c r="CH5" s="0" t="n">
+      <c r="CH5">
         <v>457219</v>
       </c>
-      <c r="CI5" s="0" t="n">
+      <c r="CI5">
         <v>857.72</v>
       </c>
-      <c r="CJ5" s="0" t="n">
+      <c r="CJ5">
         <v>213518</v>
       </c>
-      <c r="CK5" s="0" t="n">
+      <c r="CK5">
         <v>948447</v>
       </c>
-      <c r="CL5" s="0" t="n">
+      <c r="CL5">
         <v>444089</v>
       </c>
-      <c r="CM5" s="0" t="n">
-        <v>67777.9</v>
-      </c>
-      <c r="CN5" s="0" t="n">
+      <c r="CM5">
+        <v>67777.899999999994</v>
+      </c>
+      <c r="CN5">
         <v>824135</v>
       </c>
-      <c r="CO5" s="0" t="n">
+      <c r="CO5">
         <v>245821</v>
       </c>
-      <c r="CP5" s="0" t="n">
+      <c r="CP5">
         <v>672815</v>
       </c>
-      <c r="CQ5" s="0" t="n">
+      <c r="CQ5">
         <v>679885</v>
       </c>
-      <c r="CR5" s="0" t="n">
+      <c r="CR5">
         <v>5004.82</v>
       </c>
-      <c r="CS5" s="0" t="n">
+      <c r="CS5">
         <v>706118</v>
       </c>
-      <c r="CT5" s="0" t="n">
+      <c r="CT5">
         <v>706206</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>191223</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>80547.3</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>187499</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>222990</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>228112</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>72946.2</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>10097.2</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="H6">
+        <v>10097.200000000001</v>
+      </c>
+      <c r="I6">
         <v>61182</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6">
         <v>231758</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6">
         <v>24335.7</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6">
         <v>18316</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6">
         <v>55366.8</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6">
         <v>3700.86</v>
       </c>
-      <c r="O6" s="0" t="n">
-        <v>49343.2</v>
-      </c>
-      <c r="P6" s="0" t="n">
+      <c r="O6">
+        <v>49343.199999999997</v>
+      </c>
+      <c r="P6">
         <v>60871.9</v>
       </c>
-      <c r="Q6" s="0" t="n">
-        <v>35545.3</v>
-      </c>
-      <c r="R6" s="0" t="n">
+      <c r="Q6">
+        <v>35545.300000000003</v>
+      </c>
+      <c r="R6">
         <v>14406.3</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6">
         <v>20070.8</v>
       </c>
-      <c r="T6" s="0" t="n">
-        <v>34406.7</v>
-      </c>
-      <c r="U6" s="0" t="n">
+      <c r="T6">
+        <v>34406.699999999997</v>
+      </c>
+      <c r="U6">
         <v>87140</v>
       </c>
-      <c r="V6" s="0" t="n">
-        <v>82286.4</v>
-      </c>
-      <c r="W6" s="0" t="n">
+      <c r="V6">
+        <v>82286.399999999994</v>
+      </c>
+      <c r="W6">
         <v>103279</v>
       </c>
-      <c r="X6" s="0" t="n">
-        <v>33449.6</v>
-      </c>
-      <c r="Y6" s="0" t="n">
+      <c r="X6">
+        <v>33449.599999999999</v>
+      </c>
+      <c r="Y6">
         <v>103857</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="Z6">
         <v>55143.5</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AA6">
         <v>15777.1</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AB6">
         <v>51447.1</v>
       </c>
-      <c r="AC6" s="0" t="n">
-        <v>53119.2</v>
-      </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AC6">
+        <v>53119.199999999997</v>
+      </c>
+      <c r="AD6">
         <v>67167.7</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AE6">
         <v>141615</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AF6">
         <v>188444</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AG6">
         <v>93564.7</v>
       </c>
-      <c r="AH6" s="0" t="n">
-        <v>59887.2</v>
-      </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AH6">
+        <v>59887.199999999997</v>
+      </c>
+      <c r="AI6">
         <v>71151</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AJ6">
         <v>27333</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AK6">
         <v>143209</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AL6">
         <v>108931</v>
       </c>
-      <c r="AM6" s="0" t="n">
-        <v>19268.9</v>
-      </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AM6">
+        <v>19268.900000000001</v>
+      </c>
+      <c r="AN6">
         <v>103034</v>
       </c>
-      <c r="AO6" s="0" t="n">
+      <c r="AO6">
         <v>353055</v>
       </c>
-      <c r="AP6" s="0" t="n">
+      <c r="AP6">
         <v>928660</v>
       </c>
-      <c r="AQ6" s="0" t="n">
+      <c r="AQ6">
         <v>277291</v>
       </c>
-      <c r="AR6" s="0" t="n">
+      <c r="AR6">
         <v>25364</v>
       </c>
-      <c r="AS6" s="0" t="n">
+      <c r="AS6">
         <v>84691.9</v>
       </c>
-      <c r="AT6" s="0" t="n">
+      <c r="AT6">
         <v>761895</v>
       </c>
-      <c r="AU6" s="0" t="n">
-        <v>35188.4</v>
-      </c>
-      <c r="AV6" s="0" t="n">
+      <c r="AU6">
+        <v>35188.400000000001</v>
+      </c>
+      <c r="AV6">
         <v>675235</v>
       </c>
-      <c r="AW6" s="0" t="n">
+      <c r="AW6">
         <v>761265</v>
       </c>
-      <c r="AX6" s="0" t="n">
+      <c r="AX6">
         <v>607321</v>
       </c>
-      <c r="AY6" s="0" t="n">
+      <c r="AY6">
         <v>42465.9</v>
       </c>
-      <c r="AZ6" s="0" t="n">
+      <c r="AZ6">
         <v>196507</v>
       </c>
-      <c r="BA6" s="0" t="n">
+      <c r="BA6">
         <v>235267</v>
       </c>
-      <c r="BB6" s="0" t="n">
+      <c r="BB6">
         <v>216172</v>
       </c>
-      <c r="BC6" s="0" t="n">
+      <c r="BC6">
         <v>180028</v>
       </c>
-      <c r="BD6" s="0" t="n">
-        <v>73447.6</v>
-      </c>
-      <c r="BE6" s="0" t="n">
-        <v>53106.4</v>
-      </c>
-      <c r="BF6" s="0" t="n">
+      <c r="BD6">
+        <v>73447.600000000006</v>
+      </c>
+      <c r="BE6">
+        <v>53106.400000000001</v>
+      </c>
+      <c r="BF6">
         <v>141023</v>
       </c>
-      <c r="BG6" s="0" t="n">
+      <c r="BG6">
         <v>44419</v>
       </c>
-      <c r="BH6" s="0" t="n">
+      <c r="BH6">
         <v>270112</v>
       </c>
-      <c r="BI6" s="0" t="n">
+      <c r="BI6">
         <v>355233</v>
       </c>
-      <c r="BJ6" s="0" t="n">
+      <c r="BJ6">
         <v>198765</v>
       </c>
-      <c r="BK6" s="0" t="n">
+      <c r="BK6">
         <v>211442</v>
       </c>
-      <c r="BL6" s="0" t="n">
+      <c r="BL6">
         <v>210818</v>
       </c>
-      <c r="BM6" s="0" t="n">
+      <c r="BM6">
         <v>474126</v>
       </c>
-      <c r="BN6" s="0" t="n">
+      <c r="BN6">
         <v>417503</v>
       </c>
-      <c r="BO6" s="0" t="n">
+      <c r="BO6">
         <v>206183</v>
       </c>
-      <c r="BP6" s="0" t="n">
+      <c r="BP6">
         <v>303845</v>
       </c>
-      <c r="BQ6" s="0" t="n">
+      <c r="BQ6">
         <v>94145</v>
       </c>
-      <c r="BR6" s="0" t="n">
+      <c r="BR6">
         <v>125499</v>
       </c>
-      <c r="BS6" s="0" t="n">
+      <c r="BS6">
         <v>422919</v>
       </c>
-      <c r="BT6" s="0" t="n">
+      <c r="BT6">
         <v>264547</v>
       </c>
-      <c r="BU6" s="0" t="n">
+      <c r="BU6">
         <v>52400.5</v>
       </c>
-      <c r="BV6" s="0" t="n">
+      <c r="BV6">
         <v>111772</v>
       </c>
-      <c r="BW6" s="0" t="n">
+      <c r="BW6">
         <v>122185</v>
       </c>
-      <c r="BX6" s="0" t="n">
+      <c r="BX6">
         <v>210228</v>
       </c>
-      <c r="BY6" s="0" t="n">
+      <c r="BY6">
         <v>247265</v>
       </c>
-      <c r="BZ6" s="0" t="n">
+      <c r="BZ6">
         <v>582192</v>
       </c>
-      <c r="CA6" s="0" t="n">
+      <c r="CA6">
         <v>496173</v>
       </c>
-      <c r="CB6" s="0" t="n">
+      <c r="CB6">
         <v>355918</v>
       </c>
-      <c r="CC6" s="0" t="n">
-        <v>19159.9</v>
-      </c>
-      <c r="CD6" s="0" t="n">
+      <c r="CC6">
+        <v>19159.900000000001</v>
+      </c>
+      <c r="CD6">
         <v>255571</v>
       </c>
-      <c r="CE6" s="0" t="n">
+      <c r="CE6">
         <v>420894</v>
       </c>
-      <c r="CF6" s="0" t="n">
+      <c r="CF6">
         <v>1389.58</v>
       </c>
-      <c r="CG6" s="0" t="n">
+      <c r="CG6">
         <v>239409</v>
       </c>
-      <c r="CH6" s="0" t="n">
+      <c r="CH6">
         <v>464309</v>
       </c>
-      <c r="CI6" s="0" t="n">
+      <c r="CI6">
         <v>857.72</v>
       </c>
-      <c r="CJ6" s="0" t="n">
+      <c r="CJ6">
         <v>220648</v>
       </c>
-      <c r="CK6" s="0" t="n">
+      <c r="CK6">
         <v>962514</v>
       </c>
-      <c r="CL6" s="0" t="n">
+      <c r="CL6">
         <v>456659</v>
       </c>
-      <c r="CM6" s="0" t="n">
-        <v>77738.9</v>
-      </c>
-      <c r="CN6" s="0" t="n">
+      <c r="CM6">
+        <v>77738.899999999994</v>
+      </c>
+      <c r="CN6">
         <v>833975</v>
       </c>
-      <c r="CO6" s="0" t="n">
+      <c r="CO6">
         <v>258417</v>
       </c>
-      <c r="CP6" s="0" t="n">
+      <c r="CP6">
         <v>682015</v>
       </c>
-      <c r="CQ6" s="0" t="n">
+      <c r="CQ6">
         <v>689762</v>
       </c>
-      <c r="CR6" s="0" t="n">
-        <v>23624.8</v>
-      </c>
-      <c r="CS6" s="0" t="n">
+      <c r="CR6">
+        <v>23624.799999999999</v>
+      </c>
+      <c r="CS6">
         <v>718081</v>
       </c>
-      <c r="CT6" s="0" t="n">
+      <c r="CT6">
         <v>718116</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>20</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>191858</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>81329.3</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>188280</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>223260</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>228377</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>73621.4</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>10099.3</v>
-      </c>
-      <c r="I7" s="0" t="n">
+      <c r="G7">
+        <v>73621.399999999994</v>
+      </c>
+      <c r="H7">
+        <v>10099.299999999999</v>
+      </c>
+      <c r="I7">
         <v>61818.1</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>231871</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7">
         <v>24609.9</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7">
         <v>18472.7</v>
       </c>
-      <c r="M7" s="0" t="n">
-        <v>55576.8</v>
-      </c>
-      <c r="N7" s="0" t="n">
+      <c r="M7">
+        <v>55576.800000000003</v>
+      </c>
+      <c r="N7">
         <v>3700.86</v>
       </c>
-      <c r="O7" s="0" t="n">
-        <v>49625.6</v>
-      </c>
-      <c r="P7" s="0" t="n">
+      <c r="O7">
+        <v>49625.599999999999</v>
+      </c>
+      <c r="P7">
         <v>60877.7</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7">
         <v>35771.1</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7">
         <v>14529.6</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7">
         <v>20267.8</v>
       </c>
-      <c r="T7" s="0" t="n">
-        <v>34823.2</v>
-      </c>
-      <c r="U7" s="0" t="n">
+      <c r="T7">
+        <v>34823.199999999997</v>
+      </c>
+      <c r="U7">
         <v>87610.6</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="V7">
         <v>82862.3</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="W7">
         <v>103613</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="X7">
         <v>33720.1</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Y7">
         <v>104277</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="Z7">
         <v>55744.3</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AA7">
         <v>16033.5</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AB7">
         <v>52231.4</v>
       </c>
-      <c r="AC7" s="0" t="n">
-        <v>53512.8</v>
-      </c>
-      <c r="AD7" s="0" t="n">
-        <v>67835.4</v>
-      </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AC7">
+        <v>53512.800000000003</v>
+      </c>
+      <c r="AD7">
+        <v>67835.399999999994</v>
+      </c>
+      <c r="AE7">
         <v>142019</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AF7">
         <v>188444</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AG7">
         <v>94141</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AH7">
         <v>61015.9</v>
       </c>
-      <c r="AI7" s="0" t="n">
-        <v>71665.6</v>
-      </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AI7">
+        <v>71665.600000000006</v>
+      </c>
+      <c r="AJ7">
         <v>27565.1</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AK7">
         <v>143693</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AL7">
         <v>109758</v>
       </c>
-      <c r="AM7" s="0" t="n">
-        <v>19448.6</v>
-      </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AM7">
+        <v>19448.599999999999</v>
+      </c>
+      <c r="AN7">
         <v>103474</v>
       </c>
-      <c r="AO7" s="0" t="n">
+      <c r="AO7">
         <v>370017</v>
       </c>
-      <c r="AP7" s="0" t="n">
+      <c r="AP7">
         <v>934913</v>
       </c>
-      <c r="AQ7" s="0" t="n">
+      <c r="AQ7">
         <v>298209</v>
       </c>
-      <c r="AR7" s="0" t="n">
+      <c r="AR7">
         <v>28848.1</v>
       </c>
-      <c r="AS7" s="0" t="n">
+      <c r="AS7">
         <v>99155.4</v>
       </c>
-      <c r="AT7" s="0" t="n">
+      <c r="AT7">
         <v>774223</v>
       </c>
-      <c r="AU7" s="0" t="n">
+      <c r="AU7">
         <v>39613.1</v>
       </c>
-      <c r="AV7" s="0" t="n">
+      <c r="AV7">
         <v>688076</v>
       </c>
-      <c r="AW7" s="0" t="n">
+      <c r="AW7">
         <v>773019</v>
       </c>
-      <c r="AX7" s="0" t="n">
+      <c r="AX7">
         <v>618857</v>
       </c>
-      <c r="AY7" s="0" t="n">
+      <c r="AY7">
         <v>47690.5</v>
       </c>
-      <c r="AZ7" s="0" t="n">
+      <c r="AZ7">
         <v>200136</v>
       </c>
-      <c r="BA7" s="0" t="n">
+      <c r="BA7">
         <v>237877</v>
       </c>
-      <c r="BB7" s="0" t="n">
+      <c r="BB7">
         <v>219091</v>
       </c>
-      <c r="BC7" s="0" t="n">
+      <c r="BC7">
         <v>183701</v>
       </c>
-      <c r="BD7" s="0" t="n">
+      <c r="BD7">
         <v>78153.7</v>
       </c>
-      <c r="BE7" s="0" t="n">
+      <c r="BE7">
         <v>57687.9</v>
       </c>
-      <c r="BF7" s="0" t="n">
+      <c r="BF7">
         <v>145430</v>
       </c>
-      <c r="BG7" s="0" t="n">
+      <c r="BG7">
         <v>48577.8</v>
       </c>
-      <c r="BH7" s="0" t="n">
+      <c r="BH7">
         <v>278466</v>
       </c>
-      <c r="BI7" s="0" t="n">
+      <c r="BI7">
         <v>364610</v>
       </c>
-      <c r="BJ7" s="0" t="n">
+      <c r="BJ7">
         <v>206642</v>
       </c>
-      <c r="BK7" s="0" t="n">
+      <c r="BK7">
         <v>221085</v>
       </c>
-      <c r="BL7" s="0" t="n">
+      <c r="BL7">
         <v>221558</v>
       </c>
-      <c r="BM7" s="0" t="n">
+      <c r="BM7">
         <v>477193</v>
       </c>
-      <c r="BN7" s="0" t="n">
+      <c r="BN7">
         <v>422846</v>
       </c>
-      <c r="BO7" s="0" t="n">
+      <c r="BO7">
         <v>214962</v>
       </c>
-      <c r="BP7" s="0" t="n">
+      <c r="BP7">
         <v>311469</v>
       </c>
-      <c r="BQ7" s="0" t="n">
+      <c r="BQ7">
         <v>102688</v>
       </c>
-      <c r="BR7" s="0" t="n">
+      <c r="BR7">
         <v>140128</v>
       </c>
-      <c r="BS7" s="0" t="n">
+      <c r="BS7">
         <v>433938</v>
       </c>
-      <c r="BT7" s="0" t="n">
+      <c r="BT7">
         <v>278163</v>
       </c>
-      <c r="BU7" s="0" t="n">
+      <c r="BU7">
         <v>61110.1</v>
       </c>
-      <c r="BV7" s="0" t="n">
+      <c r="BV7">
         <v>124391</v>
       </c>
-      <c r="BW7" s="0" t="n">
+      <c r="BW7">
         <v>135633</v>
       </c>
-      <c r="BX7" s="0" t="n">
+      <c r="BX7">
         <v>224520</v>
       </c>
-      <c r="BY7" s="0" t="n">
+      <c r="BY7">
         <v>262966</v>
       </c>
-      <c r="BZ7" s="0" t="n">
+      <c r="BZ7">
         <v>591911</v>
       </c>
-      <c r="CA7" s="0" t="n">
+      <c r="CA7">
         <v>507032</v>
       </c>
-      <c r="CB7" s="0" t="n">
+      <c r="CB7">
         <v>365180</v>
       </c>
-      <c r="CC7" s="0" t="n">
+      <c r="CC7">
         <v>27827.4</v>
       </c>
-      <c r="CD7" s="0" t="n">
+      <c r="CD7">
         <v>265084</v>
       </c>
-      <c r="CE7" s="0" t="n">
+      <c r="CE7">
         <v>429309</v>
       </c>
-      <c r="CF7" s="0" t="n">
+      <c r="CF7">
         <v>14646.1</v>
       </c>
-      <c r="CG7" s="0" t="n">
+      <c r="CG7">
         <v>251221</v>
       </c>
-      <c r="CH7" s="0" t="n">
+      <c r="CH7">
         <v>473087</v>
       </c>
-      <c r="CI7" s="0" t="n">
+      <c r="CI7">
         <v>9180.6</v>
       </c>
-      <c r="CJ7" s="0" t="n">
+      <c r="CJ7">
         <v>232961</v>
       </c>
-      <c r="CK7" s="0" t="n">
+      <c r="CK7">
         <v>978223</v>
       </c>
-      <c r="CL7" s="0" t="n">
+      <c r="CL7">
         <v>478568</v>
       </c>
-      <c r="CM7" s="0" t="n">
+      <c r="CM7">
         <v>96257.2</v>
       </c>
-      <c r="CN7" s="0" t="n">
+      <c r="CN7">
         <v>849023</v>
       </c>
-      <c r="CO7" s="0" t="n">
+      <c r="CO7">
         <v>282415</v>
       </c>
-      <c r="CP7" s="0" t="n">
+      <c r="CP7">
         <v>699682</v>
       </c>
-      <c r="CQ7" s="0" t="n">
+      <c r="CQ7">
         <v>706640</v>
       </c>
-      <c r="CR7" s="0" t="n">
-        <v>41845.2</v>
-      </c>
-      <c r="CS7" s="0" t="n">
+      <c r="CR7">
+        <v>41845.199999999997</v>
+      </c>
+      <c r="CS7">
         <v>736999</v>
       </c>
-      <c r="CT7" s="0" t="n">
+      <c r="CT7">
         <v>735570</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>30</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>191858</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>81329.3</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>188291</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>223260</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>228377</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>73621.4</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>10099.3</v>
-      </c>
-      <c r="I8" s="0" t="n">
+      <c r="G8">
+        <v>73621.399999999994</v>
+      </c>
+      <c r="H8">
+        <v>10099.299999999999</v>
+      </c>
+      <c r="I8">
         <v>61818.1</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>231871</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8">
         <v>24609.9</v>
       </c>
-      <c r="L8" s="0" t="n">
-        <v>18473.4</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>55576.8</v>
-      </c>
-      <c r="N8" s="0" t="n">
+      <c r="L8">
+        <v>18473.400000000001</v>
+      </c>
+      <c r="M8">
+        <v>55576.800000000003</v>
+      </c>
+      <c r="N8">
         <v>3700.86</v>
       </c>
-      <c r="O8" s="0" t="n">
-        <v>49625.6</v>
-      </c>
-      <c r="P8" s="0" t="n">
+      <c r="O8">
+        <v>49625.599999999999</v>
+      </c>
+      <c r="P8">
         <v>60877.7</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8">
         <v>35773.1</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8">
         <v>14529.6</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8">
         <v>20267.8</v>
       </c>
-      <c r="T8" s="0" t="n">
-        <v>34826.2</v>
-      </c>
-      <c r="U8" s="0" t="n">
+      <c r="T8">
+        <v>34826.199999999997</v>
+      </c>
+      <c r="U8">
         <v>87613.6</v>
       </c>
-      <c r="V8" s="0" t="n">
-        <v>82863.9</v>
-      </c>
-      <c r="W8" s="0" t="n">
+      <c r="V8">
+        <v>82863.899999999994</v>
+      </c>
+      <c r="W8">
         <v>103618</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="X8">
         <v>33720.1</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Y8">
         <v>104278</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="Z8">
         <v>55744.3</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AA8">
         <v>16033.5</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AB8">
         <v>52231.4</v>
       </c>
-      <c r="AC8" s="0" t="n">
-        <v>53512.8</v>
-      </c>
-      <c r="AD8" s="0" t="n">
+      <c r="AC8">
+        <v>53512.800000000003</v>
+      </c>
+      <c r="AD8">
         <v>67837.3</v>
       </c>
-      <c r="AE8" s="0" t="n">
+      <c r="AE8">
         <v>142030</v>
       </c>
-      <c r="AF8" s="0" t="n">
+      <c r="AF8">
         <v>188444</v>
       </c>
-      <c r="AG8" s="0" t="n">
+      <c r="AG8">
         <v>94148.3</v>
       </c>
-      <c r="AH8" s="0" t="n">
-        <v>61016.8</v>
-      </c>
-      <c r="AI8" s="0" t="n">
-        <v>71666.1</v>
-      </c>
-      <c r="AJ8" s="0" t="n">
+      <c r="AH8">
+        <v>61016.800000000003</v>
+      </c>
+      <c r="AI8">
+        <v>71666.100000000006</v>
+      </c>
+      <c r="AJ8">
         <v>27565.1</v>
       </c>
-      <c r="AK8" s="0" t="n">
+      <c r="AK8">
         <v>143694</v>
       </c>
-      <c r="AL8" s="0" t="n">
+      <c r="AL8">
         <v>109763</v>
       </c>
-      <c r="AM8" s="0" t="n">
-        <v>19448.6</v>
-      </c>
-      <c r="AN8" s="0" t="n">
+      <c r="AM8">
+        <v>19448.599999999999</v>
+      </c>
+      <c r="AN8">
         <v>103479</v>
       </c>
-      <c r="AO8" s="0" t="n">
+      <c r="AO8">
         <v>372326</v>
       </c>
-      <c r="AP8" s="0" t="n">
+      <c r="AP8">
         <v>934965</v>
       </c>
-      <c r="AQ8" s="0" t="n">
+      <c r="AQ8">
         <v>299738</v>
       </c>
-      <c r="AR8" s="0" t="n">
+      <c r="AR8">
         <v>28848.1</v>
       </c>
-      <c r="AS8" s="0" t="n">
+      <c r="AS8">
         <v>99231.6</v>
       </c>
-      <c r="AT8" s="0" t="n">
+      <c r="AT8">
         <v>774921</v>
       </c>
-      <c r="AU8" s="0" t="n">
+      <c r="AU8">
         <v>39613.1</v>
       </c>
-      <c r="AV8" s="0" t="n">
+      <c r="AV8">
         <v>689713</v>
       </c>
-      <c r="AW8" s="0" t="n">
+      <c r="AW8">
         <v>773932</v>
       </c>
-      <c r="AX8" s="0" t="n">
+      <c r="AX8">
         <v>619734</v>
       </c>
-      <c r="AY8" s="0" t="n">
+      <c r="AY8">
         <v>47923.5</v>
       </c>
-      <c r="AZ8" s="0" t="n">
+      <c r="AZ8">
         <v>200616</v>
       </c>
-      <c r="BA8" s="0" t="n">
+      <c r="BA8">
         <v>237934</v>
       </c>
-      <c r="BB8" s="0" t="n">
+      <c r="BB8">
         <v>219474</v>
       </c>
-      <c r="BC8" s="0" t="n">
+      <c r="BC8">
         <v>184149</v>
       </c>
-      <c r="BD8" s="0" t="n">
+      <c r="BD8">
         <v>78744.7</v>
       </c>
-      <c r="BE8" s="0" t="n">
+      <c r="BE8">
         <v>58102.5</v>
       </c>
-      <c r="BF8" s="0" t="n">
+      <c r="BF8">
         <v>146221</v>
       </c>
-      <c r="BG8" s="0" t="n">
+      <c r="BG8">
         <v>48936.1</v>
       </c>
-      <c r="BH8" s="0" t="n">
+      <c r="BH8">
         <v>279740</v>
       </c>
-      <c r="BI8" s="0" t="n">
+      <c r="BI8">
         <v>365700</v>
       </c>
-      <c r="BJ8" s="0" t="n">
+      <c r="BJ8">
         <v>207898</v>
       </c>
-      <c r="BK8" s="0" t="n">
+      <c r="BK8">
         <v>222375</v>
       </c>
-      <c r="BL8" s="0" t="n">
+      <c r="BL8">
         <v>222969</v>
       </c>
-      <c r="BM8" s="0" t="n">
+      <c r="BM8">
         <v>477196</v>
       </c>
-      <c r="BN8" s="0" t="n">
+      <c r="BN8">
         <v>423271</v>
       </c>
-      <c r="BO8" s="0" t="n">
+      <c r="BO8">
         <v>216045</v>
       </c>
-      <c r="BP8" s="0" t="n">
+      <c r="BP8">
         <v>312559</v>
       </c>
-      <c r="BQ8" s="0" t="n">
+      <c r="BQ8">
         <v>103341</v>
       </c>
-      <c r="BR8" s="0" t="n">
+      <c r="BR8">
         <v>140595</v>
       </c>
-      <c r="BS8" s="0" t="n">
+      <c r="BS8">
         <v>435481</v>
       </c>
-      <c r="BT8" s="0" t="n">
+      <c r="BT8">
         <v>280020</v>
       </c>
-      <c r="BU8" s="0" t="n">
+      <c r="BU8">
         <v>61136.7</v>
       </c>
-      <c r="BV8" s="0" t="n">
+      <c r="BV8">
         <v>125265</v>
       </c>
-      <c r="BW8" s="0" t="n">
+      <c r="BW8">
         <v>136405</v>
       </c>
-      <c r="BX8" s="0" t="n">
+      <c r="BX8">
         <v>225762</v>
       </c>
-      <c r="BY8" s="0" t="n">
+      <c r="BY8">
         <v>264445</v>
       </c>
-      <c r="BZ8" s="0" t="n">
+      <c r="BZ8">
         <v>592802</v>
       </c>
-      <c r="CA8" s="0" t="n">
+      <c r="CA8">
         <v>508475</v>
       </c>
-      <c r="CB8" s="0" t="n">
+      <c r="CB8">
         <v>370672</v>
       </c>
-      <c r="CC8" s="0" t="n">
+      <c r="CC8">
         <v>28636.9</v>
       </c>
-      <c r="CD8" s="0" t="n">
+      <c r="CD8">
         <v>271244</v>
       </c>
-      <c r="CE8" s="0" t="n">
+      <c r="CE8">
         <v>433963</v>
       </c>
-      <c r="CF8" s="0" t="n">
+      <c r="CF8">
         <v>14864.6</v>
       </c>
-      <c r="CG8" s="0" t="n">
+      <c r="CG8">
         <v>258454</v>
       </c>
-      <c r="CH8" s="0" t="n">
+      <c r="CH8">
         <v>477171</v>
       </c>
-      <c r="CI8" s="0" t="n">
+      <c r="CI8">
         <v>9258.1</v>
       </c>
-      <c r="CJ8" s="0" t="n">
+      <c r="CJ8">
         <v>239622</v>
       </c>
-      <c r="CK8" s="0" t="n">
+      <c r="CK8">
         <v>983849</v>
       </c>
-      <c r="CL8" s="0" t="n">
+      <c r="CL8">
         <v>492192</v>
       </c>
-      <c r="CM8" s="0" t="n">
+      <c r="CM8">
         <v>102647</v>
       </c>
-      <c r="CN8" s="0" t="n">
+      <c r="CN8">
         <v>857967</v>
       </c>
-      <c r="CO8" s="0" t="n">
+      <c r="CO8">
         <v>296347</v>
       </c>
-      <c r="CP8" s="0" t="n">
+      <c r="CP8">
         <v>709442</v>
       </c>
-      <c r="CQ8" s="0" t="n">
+      <c r="CQ8">
         <v>715221</v>
       </c>
-      <c r="CR8" s="0" t="n">
+      <c r="CR8">
         <v>43005.7</v>
       </c>
-      <c r="CS8" s="0" t="n">
+      <c r="CS8">
         <v>747178</v>
       </c>
-      <c r="CT8" s="0" t="n">
+      <c r="CT8">
         <v>744949</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>40</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>191858</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>81329.3</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>188291</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>223260</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>228377</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>73621.4</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>10099.3</v>
-      </c>
-      <c r="I9" s="0" t="n">
+      <c r="G9">
+        <v>73621.399999999994</v>
+      </c>
+      <c r="H9">
+        <v>10099.299999999999</v>
+      </c>
+      <c r="I9">
         <v>61818.1</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>231871</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>24609.9</v>
       </c>
-      <c r="L9" s="0" t="n">
-        <v>18473.4</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>55576.8</v>
-      </c>
-      <c r="N9" s="0" t="n">
+      <c r="L9">
+        <v>18473.400000000001</v>
+      </c>
+      <c r="M9">
+        <v>55576.800000000003</v>
+      </c>
+      <c r="N9">
         <v>3700.86</v>
       </c>
-      <c r="O9" s="0" t="n">
-        <v>49625.6</v>
-      </c>
-      <c r="P9" s="0" t="n">
+      <c r="O9">
+        <v>49625.599999999999</v>
+      </c>
+      <c r="P9">
         <v>60877.7</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9">
         <v>35773.1</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9">
         <v>14529.6</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9">
         <v>20267.8</v>
       </c>
-      <c r="T9" s="0" t="n">
-        <v>34826.2</v>
-      </c>
-      <c r="U9" s="0" t="n">
+      <c r="T9">
+        <v>34826.199999999997</v>
+      </c>
+      <c r="U9">
         <v>87613.6</v>
       </c>
-      <c r="V9" s="0" t="n">
-        <v>82863.9</v>
-      </c>
-      <c r="W9" s="0" t="n">
+      <c r="V9">
+        <v>82863.899999999994</v>
+      </c>
+      <c r="W9">
         <v>103618</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="X9">
         <v>33720.1</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Y9">
         <v>104278</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="Z9">
         <v>55744.3</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AA9">
         <v>16033.5</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AB9">
         <v>52231.4</v>
       </c>
-      <c r="AC9" s="0" t="n">
-        <v>53512.8</v>
-      </c>
-      <c r="AD9" s="0" t="n">
+      <c r="AC9">
+        <v>53512.800000000003</v>
+      </c>
+      <c r="AD9">
         <v>67837.3</v>
       </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AE9">
         <v>142030</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AF9">
         <v>188444</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AG9">
         <v>94148.3</v>
       </c>
-      <c r="AH9" s="0" t="n">
-        <v>61016.8</v>
-      </c>
-      <c r="AI9" s="0" t="n">
-        <v>71666.1</v>
-      </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AH9">
+        <v>61016.800000000003</v>
+      </c>
+      <c r="AI9">
+        <v>71666.100000000006</v>
+      </c>
+      <c r="AJ9">
         <v>27565.1</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AK9">
         <v>143694</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AL9">
         <v>109763</v>
       </c>
-      <c r="AM9" s="0" t="n">
-        <v>19448.6</v>
-      </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AM9">
+        <v>19448.599999999999</v>
+      </c>
+      <c r="AN9">
         <v>103480</v>
       </c>
-      <c r="AO9" s="0" t="n">
+      <c r="AO9">
         <v>372331</v>
       </c>
-      <c r="AP9" s="0" t="n">
+      <c r="AP9">
         <v>934965</v>
       </c>
-      <c r="AQ9" s="0" t="n">
+      <c r="AQ9">
         <v>299738</v>
       </c>
-      <c r="AR9" s="0" t="n">
+      <c r="AR9">
         <v>28848.1</v>
       </c>
-      <c r="AS9" s="0" t="n">
+      <c r="AS9">
         <v>99231.6</v>
       </c>
-      <c r="AT9" s="0" t="n">
+      <c r="AT9">
         <v>774945</v>
       </c>
-      <c r="AU9" s="0" t="n">
+      <c r="AU9">
         <v>39613.1</v>
       </c>
-      <c r="AV9" s="0" t="n">
+      <c r="AV9">
         <v>689720</v>
       </c>
-      <c r="AW9" s="0" t="n">
+      <c r="AW9">
         <v>773942</v>
       </c>
-      <c r="AX9" s="0" t="n">
+      <c r="AX9">
         <v>619791</v>
       </c>
-      <c r="AY9" s="0" t="n">
+      <c r="AY9">
         <v>47923.5</v>
       </c>
-      <c r="AZ9" s="0" t="n">
+      <c r="AZ9">
         <v>200623</v>
       </c>
-      <c r="BA9" s="0" t="n">
+      <c r="BA9">
         <v>237936</v>
       </c>
-      <c r="BB9" s="0" t="n">
+      <c r="BB9">
         <v>219476</v>
       </c>
-      <c r="BC9" s="0" t="n">
+      <c r="BC9">
         <v>184163</v>
       </c>
-      <c r="BD9" s="0" t="n">
+      <c r="BD9">
         <v>78748.7</v>
       </c>
-      <c r="BE9" s="0" t="n">
+      <c r="BE9">
         <v>58104.2</v>
       </c>
-      <c r="BF9" s="0" t="n">
+      <c r="BF9">
         <v>146223</v>
       </c>
-      <c r="BG9" s="0" t="n">
+      <c r="BG9">
         <v>48936.9</v>
       </c>
-      <c r="BH9" s="0" t="n">
+      <c r="BH9">
         <v>279742</v>
       </c>
-      <c r="BI9" s="0" t="n">
+      <c r="BI9">
         <v>365710</v>
       </c>
-      <c r="BJ9" s="0" t="n">
+      <c r="BJ9">
         <v>207906</v>
       </c>
-      <c r="BK9" s="0" t="n">
+      <c r="BK9">
         <v>222397</v>
       </c>
-      <c r="BL9" s="0" t="n">
+      <c r="BL9">
         <v>222973</v>
       </c>
-      <c r="BM9" s="0" t="n">
+      <c r="BM9">
         <v>477196</v>
       </c>
-      <c r="BN9" s="0" t="n">
+      <c r="BN9">
         <v>423271</v>
       </c>
-      <c r="BO9" s="0" t="n">
+      <c r="BO9">
         <v>216051</v>
       </c>
-      <c r="BP9" s="0" t="n">
+      <c r="BP9">
         <v>312565</v>
       </c>
-      <c r="BQ9" s="0" t="n">
+      <c r="BQ9">
         <v>103343</v>
       </c>
-      <c r="BR9" s="0" t="n">
+      <c r="BR9">
         <v>140595</v>
       </c>
-      <c r="BS9" s="0" t="n">
+      <c r="BS9">
         <v>435501</v>
       </c>
-      <c r="BT9" s="0" t="n">
+      <c r="BT9">
         <v>280027</v>
       </c>
-      <c r="BU9" s="0" t="n">
+      <c r="BU9">
         <v>61136.7</v>
       </c>
-      <c r="BV9" s="0" t="n">
+      <c r="BV9">
         <v>125267</v>
       </c>
-      <c r="BW9" s="0" t="n">
+      <c r="BW9">
         <v>136405</v>
       </c>
-      <c r="BX9" s="0" t="n">
+      <c r="BX9">
         <v>225762</v>
       </c>
-      <c r="BY9" s="0" t="n">
+      <c r="BY9">
         <v>264451</v>
       </c>
-      <c r="BZ9" s="0" t="n">
+      <c r="BZ9">
         <v>592833</v>
       </c>
-      <c r="CA9" s="0" t="n">
+      <c r="CA9">
         <v>508497</v>
       </c>
-      <c r="CB9" s="0" t="n">
+      <c r="CB9">
         <v>371513</v>
       </c>
-      <c r="CC9" s="0" t="n">
-        <v>28637.6</v>
-      </c>
-      <c r="CD9" s="0" t="n">
+      <c r="CC9">
+        <v>28637.599999999999</v>
+      </c>
+      <c r="CD9">
         <v>272139</v>
       </c>
-      <c r="CE9" s="0" t="n">
+      <c r="CE9">
         <v>434626</v>
       </c>
-      <c r="CF9" s="0" t="n">
+      <c r="CF9">
         <v>14864.6</v>
       </c>
-      <c r="CG9" s="0" t="n">
+      <c r="CG9">
         <v>259384</v>
       </c>
-      <c r="CH9" s="0" t="n">
+      <c r="CH9">
         <v>477519</v>
       </c>
-      <c r="CI9" s="0" t="n">
+      <c r="CI9">
         <v>9258.1</v>
       </c>
-      <c r="CJ9" s="0" t="n">
+      <c r="CJ9">
         <v>240493</v>
       </c>
-      <c r="CK9" s="0" t="n">
+      <c r="CK9">
         <v>984352</v>
       </c>
-      <c r="CL9" s="0" t="n">
+      <c r="CL9">
         <v>493622</v>
       </c>
-      <c r="CM9" s="0" t="n">
+      <c r="CM9">
         <v>102690</v>
       </c>
-      <c r="CN9" s="0" t="n">
+      <c r="CN9">
         <v>858786</v>
       </c>
-      <c r="CO9" s="0" t="n">
+      <c r="CO9">
         <v>297041</v>
       </c>
-      <c r="CP9" s="0" t="n">
+      <c r="CP9">
         <v>710689</v>
       </c>
-      <c r="CQ9" s="0" t="n">
+      <c r="CQ9">
         <v>716740</v>
       </c>
-      <c r="CR9" s="0" t="n">
+      <c r="CR9">
         <v>43010.5</v>
       </c>
-      <c r="CS9" s="0" t="n">
+      <c r="CS9">
         <v>748107</v>
       </c>
-      <c r="CT9" s="0" t="n">
+      <c r="CT9">
         <v>746139</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>50</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>191858</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>81329.3</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>188291</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>223260</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>228377</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>73621.4</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>10099.3</v>
-      </c>
-      <c r="I10" s="0" t="n">
+      <c r="G10">
+        <v>73621.399999999994</v>
+      </c>
+      <c r="H10">
+        <v>10099.299999999999</v>
+      </c>
+      <c r="I10">
         <v>61818.1</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10">
         <v>231871</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10">
         <v>24609.9</v>
       </c>
-      <c r="L10" s="0" t="n">
-        <v>18473.4</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>55576.8</v>
-      </c>
-      <c r="N10" s="0" t="n">
+      <c r="L10">
+        <v>18473.400000000001</v>
+      </c>
+      <c r="M10">
+        <v>55576.800000000003</v>
+      </c>
+      <c r="N10">
         <v>3700.86</v>
       </c>
-      <c r="O10" s="0" t="n">
-        <v>49625.6</v>
-      </c>
-      <c r="P10" s="0" t="n">
+      <c r="O10">
+        <v>49625.599999999999</v>
+      </c>
+      <c r="P10">
         <v>60877.7</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10">
         <v>35773.1</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10">
         <v>14529.6</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10">
         <v>20267.8</v>
       </c>
-      <c r="T10" s="0" t="n">
-        <v>34826.2</v>
-      </c>
-      <c r="U10" s="0" t="n">
+      <c r="T10">
+        <v>34826.199999999997</v>
+      </c>
+      <c r="U10">
         <v>87613.6</v>
       </c>
-      <c r="V10" s="0" t="n">
-        <v>82863.9</v>
-      </c>
-      <c r="W10" s="0" t="n">
+      <c r="V10">
+        <v>82863.899999999994</v>
+      </c>
+      <c r="W10">
         <v>103618</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="X10">
         <v>33720.1</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Y10">
         <v>104278</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="Z10">
         <v>55744.3</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AA10">
         <v>16033.5</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AB10">
         <v>52231.4</v>
       </c>
-      <c r="AC10" s="0" t="n">
-        <v>53512.8</v>
-      </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AC10">
+        <v>53512.800000000003</v>
+      </c>
+      <c r="AD10">
         <v>67837.3</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AE10">
         <v>142030</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AF10">
         <v>188444</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AG10">
         <v>94148.3</v>
       </c>
-      <c r="AH10" s="0" t="n">
-        <v>61016.8</v>
-      </c>
-      <c r="AI10" s="0" t="n">
-        <v>71666.1</v>
-      </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AH10">
+        <v>61016.800000000003</v>
+      </c>
+      <c r="AI10">
+        <v>71666.100000000006</v>
+      </c>
+      <c r="AJ10">
         <v>27565.1</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AK10">
         <v>143694</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AL10">
         <v>109763</v>
       </c>
-      <c r="AM10" s="0" t="n">
-        <v>19448.6</v>
-      </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AM10">
+        <v>19448.599999999999</v>
+      </c>
+      <c r="AN10">
         <v>103480</v>
       </c>
-      <c r="AO10" s="0" t="n">
+      <c r="AO10">
         <v>372331</v>
       </c>
-      <c r="AP10" s="0" t="n">
+      <c r="AP10">
         <v>934965</v>
       </c>
-      <c r="AQ10" s="0" t="n">
+      <c r="AQ10">
         <v>299738</v>
       </c>
-      <c r="AR10" s="0" t="n">
+      <c r="AR10">
         <v>28848.1</v>
       </c>
-      <c r="AS10" s="0" t="n">
+      <c r="AS10">
         <v>99231.6</v>
       </c>
-      <c r="AT10" s="0" t="n">
+      <c r="AT10">
         <v>774945</v>
       </c>
-      <c r="AU10" s="0" t="n">
+      <c r="AU10">
         <v>39613.1</v>
       </c>
-      <c r="AV10" s="0" t="n">
+      <c r="AV10">
         <v>689720</v>
       </c>
-      <c r="AW10" s="0" t="n">
+      <c r="AW10">
         <v>773943</v>
       </c>
-      <c r="AX10" s="0" t="n">
+      <c r="AX10">
         <v>619791</v>
       </c>
-      <c r="AY10" s="0" t="n">
+      <c r="AY10">
         <v>47923.5</v>
       </c>
-      <c r="AZ10" s="0" t="n">
+      <c r="AZ10">
         <v>200623</v>
       </c>
-      <c r="BA10" s="0" t="n">
+      <c r="BA10">
         <v>237936</v>
       </c>
-      <c r="BB10" s="0" t="n">
+      <c r="BB10">
         <v>219477</v>
       </c>
-      <c r="BC10" s="0" t="n">
+      <c r="BC10">
         <v>184164</v>
       </c>
-      <c r="BD10" s="0" t="n">
+      <c r="BD10">
         <v>78748.7</v>
       </c>
-      <c r="BE10" s="0" t="n">
+      <c r="BE10">
         <v>58104.2</v>
       </c>
-      <c r="BF10" s="0" t="n">
+      <c r="BF10">
         <v>146223</v>
       </c>
-      <c r="BG10" s="0" t="n">
+      <c r="BG10">
         <v>48936.9</v>
       </c>
-      <c r="BH10" s="0" t="n">
+      <c r="BH10">
         <v>279742</v>
       </c>
-      <c r="BI10" s="0" t="n">
+      <c r="BI10">
         <v>365710</v>
       </c>
-      <c r="BJ10" s="0" t="n">
+      <c r="BJ10">
         <v>207919</v>
       </c>
-      <c r="BK10" s="0" t="n">
+      <c r="BK10">
         <v>222401</v>
       </c>
-      <c r="BL10" s="0" t="n">
+      <c r="BL10">
         <v>222973</v>
       </c>
-      <c r="BM10" s="0" t="n">
+      <c r="BM10">
         <v>477196</v>
       </c>
-      <c r="BN10" s="0" t="n">
+      <c r="BN10">
         <v>423271</v>
       </c>
-      <c r="BO10" s="0" t="n">
+      <c r="BO10">
         <v>216051</v>
       </c>
-      <c r="BP10" s="0" t="n">
+      <c r="BP10">
         <v>312565</v>
       </c>
-      <c r="BQ10" s="0" t="n">
+      <c r="BQ10">
         <v>103343</v>
       </c>
-      <c r="BR10" s="0" t="n">
+      <c r="BR10">
         <v>140595</v>
       </c>
-      <c r="BS10" s="0" t="n">
+      <c r="BS10">
         <v>435501</v>
       </c>
-      <c r="BT10" s="0" t="n">
+      <c r="BT10">
         <v>280027</v>
       </c>
-      <c r="BU10" s="0" t="n">
+      <c r="BU10">
         <v>61136.7</v>
       </c>
-      <c r="BV10" s="0" t="n">
+      <c r="BV10">
         <v>125267</v>
       </c>
-      <c r="BW10" s="0" t="n">
+      <c r="BW10">
         <v>136405</v>
       </c>
-      <c r="BX10" s="0" t="n">
+      <c r="BX10">
         <v>225762</v>
       </c>
-      <c r="BY10" s="0" t="n">
+      <c r="BY10">
         <v>264451</v>
       </c>
-      <c r="BZ10" s="0" t="n">
+      <c r="BZ10">
         <v>592833</v>
       </c>
-      <c r="CA10" s="0" t="n">
+      <c r="CA10">
         <v>508497</v>
       </c>
-      <c r="CB10" s="0" t="n">
+      <c r="CB10">
         <v>371526</v>
       </c>
-      <c r="CC10" s="0" t="n">
-        <v>28637.6</v>
-      </c>
-      <c r="CD10" s="0" t="n">
+      <c r="CC10">
+        <v>28637.599999999999</v>
+      </c>
+      <c r="CD10">
         <v>272165</v>
       </c>
-      <c r="CE10" s="0" t="n">
+      <c r="CE10">
         <v>434626</v>
       </c>
-      <c r="CF10" s="0" t="n">
+      <c r="CF10">
         <v>14864.6</v>
       </c>
-      <c r="CG10" s="0" t="n">
+      <c r="CG10">
         <v>259391</v>
       </c>
-      <c r="CH10" s="0" t="n">
+      <c r="CH10">
         <v>477522</v>
       </c>
-      <c r="CI10" s="0" t="n">
+      <c r="CI10">
         <v>9258.1</v>
       </c>
-      <c r="CJ10" s="0" t="n">
+      <c r="CJ10">
         <v>240501</v>
       </c>
-      <c r="CK10" s="0" t="n">
+      <c r="CK10">
         <v>984358</v>
       </c>
-      <c r="CL10" s="0" t="n">
+      <c r="CL10">
         <v>493627</v>
       </c>
-      <c r="CM10" s="0" t="n">
+      <c r="CM10">
         <v>102690</v>
       </c>
-      <c r="CN10" s="0" t="n">
+      <c r="CN10">
         <v>858793</v>
       </c>
-      <c r="CO10" s="0" t="n">
+      <c r="CO10">
         <v>297041</v>
       </c>
-      <c r="CP10" s="0" t="n">
+      <c r="CP10">
         <v>710705</v>
       </c>
-      <c r="CQ10" s="0" t="n">
+      <c r="CQ10">
         <v>716775</v>
       </c>
-      <c r="CR10" s="0" t="n">
+      <c r="CR10">
         <v>43010.5</v>
       </c>
-      <c r="CS10" s="0" t="n">
+      <c r="CS10">
         <v>748124</v>
       </c>
-      <c r="CT10" s="0" t="n">
+      <c r="CT10">
         <v>746147</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>60</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>191858</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>81329.3</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>188291</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>223260</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>228377</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <v>73621.4</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>10099.3</v>
-      </c>
-      <c r="I11" s="0" t="n">
+      <c r="G11">
+        <v>73621.399999999994</v>
+      </c>
+      <c r="H11">
+        <v>10099.299999999999</v>
+      </c>
+      <c r="I11">
         <v>61818.1</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11">
         <v>231871</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11">
         <v>24609.9</v>
       </c>
-      <c r="L11" s="0" t="n">
-        <v>18473.4</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>55576.8</v>
-      </c>
-      <c r="N11" s="0" t="n">
+      <c r="L11">
+        <v>18473.400000000001</v>
+      </c>
+      <c r="M11">
+        <v>55576.800000000003</v>
+      </c>
+      <c r="N11">
         <v>3700.86</v>
       </c>
-      <c r="O11" s="0" t="n">
-        <v>49625.6</v>
-      </c>
-      <c r="P11" s="0" t="n">
+      <c r="O11">
+        <v>49625.599999999999</v>
+      </c>
+      <c r="P11">
         <v>60877.7</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q11">
         <v>35773.1</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11">
         <v>14529.6</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="S11">
         <v>20267.8</v>
       </c>
-      <c r="T11" s="0" t="n">
-        <v>34826.2</v>
-      </c>
-      <c r="U11" s="0" t="n">
+      <c r="T11">
+        <v>34826.199999999997</v>
+      </c>
+      <c r="U11">
         <v>87613.6</v>
       </c>
-      <c r="V11" s="0" t="n">
-        <v>82863.9</v>
-      </c>
-      <c r="W11" s="0" t="n">
+      <c r="V11">
+        <v>82863.899999999994</v>
+      </c>
+      <c r="W11">
         <v>103618</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="X11">
         <v>33720.1</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Y11">
         <v>104278</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="Z11">
         <v>55744.3</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AA11">
         <v>16033.5</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AB11">
         <v>52231.4</v>
       </c>
-      <c r="AC11" s="0" t="n">
-        <v>53512.8</v>
-      </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AC11">
+        <v>53512.800000000003</v>
+      </c>
+      <c r="AD11">
         <v>67837.3</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AE11">
         <v>142030</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AF11">
         <v>188444</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AG11">
         <v>94148.3</v>
       </c>
-      <c r="AH11" s="0" t="n">
-        <v>61016.8</v>
-      </c>
-      <c r="AI11" s="0" t="n">
-        <v>71666.1</v>
-      </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AH11">
+        <v>61016.800000000003</v>
+      </c>
+      <c r="AI11">
+        <v>71666.100000000006</v>
+      </c>
+      <c r="AJ11">
         <v>27565.1</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AK11">
         <v>143694</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AL11">
         <v>109763</v>
       </c>
-      <c r="AM11" s="0" t="n">
-        <v>19448.6</v>
-      </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AM11">
+        <v>19448.599999999999</v>
+      </c>
+      <c r="AN11">
         <v>103480</v>
       </c>
-      <c r="AO11" s="0" t="n">
+      <c r="AO11">
         <v>372331</v>
       </c>
-      <c r="AP11" s="0" t="n">
+      <c r="AP11">
         <v>934965</v>
       </c>
-      <c r="AQ11" s="0" t="n">
+      <c r="AQ11">
         <v>299738</v>
       </c>
-      <c r="AR11" s="0" t="n">
+      <c r="AR11">
         <v>28848.1</v>
       </c>
-      <c r="AS11" s="0" t="n">
+      <c r="AS11">
         <v>99231.6</v>
       </c>
-      <c r="AT11" s="0" t="n">
+      <c r="AT11">
         <v>774945</v>
       </c>
-      <c r="AU11" s="0" t="n">
+      <c r="AU11">
         <v>39613.1</v>
       </c>
-      <c r="AV11" s="0" t="n">
+      <c r="AV11">
         <v>689720</v>
       </c>
-      <c r="AW11" s="0" t="n">
+      <c r="AW11">
         <v>773943</v>
       </c>
-      <c r="AX11" s="0" t="n">
+      <c r="AX11">
         <v>619791</v>
       </c>
-      <c r="AY11" s="0" t="n">
+      <c r="AY11">
         <v>47923.5</v>
       </c>
-      <c r="AZ11" s="0" t="n">
+      <c r="AZ11">
         <v>200623</v>
       </c>
-      <c r="BA11" s="0" t="n">
+      <c r="BA11">
         <v>237936</v>
       </c>
-      <c r="BB11" s="0" t="n">
+      <c r="BB11">
         <v>219477</v>
       </c>
-      <c r="BC11" s="0" t="n">
+      <c r="BC11">
         <v>184164</v>
       </c>
-      <c r="BD11" s="0" t="n">
+      <c r="BD11">
         <v>78748.7</v>
       </c>
-      <c r="BE11" s="0" t="n">
+      <c r="BE11">
         <v>58104.2</v>
       </c>
-      <c r="BF11" s="0" t="n">
+      <c r="BF11">
         <v>146223</v>
       </c>
-      <c r="BG11" s="0" t="n">
+      <c r="BG11">
         <v>48936.9</v>
       </c>
-      <c r="BH11" s="0" t="n">
+      <c r="BH11">
         <v>279742</v>
       </c>
-      <c r="BI11" s="0" t="n">
+      <c r="BI11">
         <v>365710</v>
       </c>
-      <c r="BJ11" s="0" t="n">
+      <c r="BJ11">
         <v>207919</v>
       </c>
-      <c r="BK11" s="0" t="n">
+      <c r="BK11">
         <v>222401</v>
       </c>
-      <c r="BL11" s="0" t="n">
+      <c r="BL11">
         <v>222974</v>
       </c>
-      <c r="BM11" s="0" t="n">
+      <c r="BM11">
         <v>477196</v>
       </c>
-      <c r="BN11" s="0" t="n">
+      <c r="BN11">
         <v>423271</v>
       </c>
-      <c r="BO11" s="0" t="n">
+      <c r="BO11">
         <v>216051</v>
       </c>
-      <c r="BP11" s="0" t="n">
+      <c r="BP11">
         <v>312565</v>
       </c>
-      <c r="BQ11" s="0" t="n">
+      <c r="BQ11">
         <v>103343</v>
       </c>
-      <c r="BR11" s="0" t="n">
+      <c r="BR11">
         <v>140595</v>
       </c>
-      <c r="BS11" s="0" t="n">
+      <c r="BS11">
         <v>435501</v>
       </c>
-      <c r="BT11" s="0" t="n">
+      <c r="BT11">
         <v>280027</v>
       </c>
-      <c r="BU11" s="0" t="n">
+      <c r="BU11">
         <v>61136.7</v>
       </c>
-      <c r="BV11" s="0" t="n">
+      <c r="BV11">
         <v>125267</v>
       </c>
-      <c r="BW11" s="0" t="n">
+      <c r="BW11">
         <v>136405</v>
       </c>
-      <c r="BX11" s="0" t="n">
+      <c r="BX11">
         <v>225762</v>
       </c>
-      <c r="BY11" s="0" t="n">
+      <c r="BY11">
         <v>264457</v>
       </c>
-      <c r="BZ11" s="0" t="n">
+      <c r="BZ11">
         <v>592833</v>
       </c>
-      <c r="CA11" s="0" t="n">
+      <c r="CA11">
         <v>508497</v>
       </c>
-      <c r="CB11" s="0" t="n">
+      <c r="CB11">
         <v>371526</v>
       </c>
-      <c r="CC11" s="0" t="n">
-        <v>28637.6</v>
-      </c>
-      <c r="CD11" s="0" t="n">
+      <c r="CC11">
+        <v>28637.599999999999</v>
+      </c>
+      <c r="CD11">
         <v>272165</v>
       </c>
-      <c r="CE11" s="0" t="n">
+      <c r="CE11">
         <v>434626</v>
       </c>
-      <c r="CF11" s="0" t="n">
+      <c r="CF11">
         <v>14864.6</v>
       </c>
-      <c r="CG11" s="0" t="n">
+      <c r="CG11">
         <v>259391</v>
       </c>
-      <c r="CH11" s="0" t="n">
+      <c r="CH11">
         <v>477525</v>
       </c>
-      <c r="CI11" s="0" t="n">
+      <c r="CI11">
         <v>9258.1</v>
       </c>
-      <c r="CJ11" s="0" t="n">
+      <c r="CJ11">
         <v>240501</v>
       </c>
-      <c r="CK11" s="0" t="n">
+      <c r="CK11">
         <v>984358</v>
       </c>
-      <c r="CL11" s="0" t="n">
+      <c r="CL11">
         <v>493627</v>
       </c>
-      <c r="CM11" s="0" t="n">
+      <c r="CM11">
         <v>102690</v>
       </c>
-      <c r="CN11" s="0" t="n">
+      <c r="CN11">
         <v>858793</v>
       </c>
-      <c r="CO11" s="0" t="n">
+      <c r="CO11">
         <v>297041</v>
       </c>
-      <c r="CP11" s="0" t="n">
+      <c r="CP11">
         <v>710705</v>
       </c>
-      <c r="CQ11" s="0" t="n">
+      <c r="CQ11">
         <v>716775</v>
       </c>
-      <c r="CR11" s="0" t="n">
+      <c r="CR11">
         <v>43010.5</v>
       </c>
-      <c r="CS11" s="0" t="n">
+      <c r="CS11">
         <v>748124</v>
       </c>
-      <c r="CT11" s="0" t="n">
+      <c r="CT11">
         <v>746153</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>70</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>191858</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>81329.3</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>188291</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>223260</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>228377</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>73621.4</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>10099.3</v>
-      </c>
-      <c r="I12" s="0" t="n">
+      <c r="G12">
+        <v>73621.399999999994</v>
+      </c>
+      <c r="H12">
+        <v>10099.299999999999</v>
+      </c>
+      <c r="I12">
         <v>61818.1</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12">
         <v>231871</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12">
         <v>24609.9</v>
       </c>
-      <c r="L12" s="0" t="n">
-        <v>18473.4</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>55576.8</v>
-      </c>
-      <c r="N12" s="0" t="n">
+      <c r="L12">
+        <v>18473.400000000001</v>
+      </c>
+      <c r="M12">
+        <v>55576.800000000003</v>
+      </c>
+      <c r="N12">
         <v>3700.86</v>
       </c>
-      <c r="O12" s="0" t="n">
-        <v>49625.6</v>
-      </c>
-      <c r="P12" s="0" t="n">
+      <c r="O12">
+        <v>49625.599999999999</v>
+      </c>
+      <c r="P12">
         <v>60877.7</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12">
         <v>35773.1</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12">
         <v>14529.6</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="S12">
         <v>20267.8</v>
       </c>
-      <c r="T12" s="0" t="n">
-        <v>34826.2</v>
-      </c>
-      <c r="U12" s="0" t="n">
+      <c r="T12">
+        <v>34826.199999999997</v>
+      </c>
+      <c r="U12">
         <v>87613.6</v>
       </c>
-      <c r="V12" s="0" t="n">
-        <v>82863.9</v>
-      </c>
-      <c r="W12" s="0" t="n">
+      <c r="V12">
+        <v>82863.899999999994</v>
+      </c>
+      <c r="W12">
         <v>103618</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="X12">
         <v>33720.1</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Y12">
         <v>104278</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="Z12">
         <v>55744.3</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AA12">
         <v>16033.5</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AB12">
         <v>52231.4</v>
       </c>
-      <c r="AC12" s="0" t="n">
-        <v>53512.8</v>
-      </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AC12">
+        <v>53512.800000000003</v>
+      </c>
+      <c r="AD12">
         <v>67837.3</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AE12">
         <v>142030</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AF12">
         <v>188444</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AG12">
         <v>94148.3</v>
       </c>
-      <c r="AH12" s="0" t="n">
-        <v>61016.8</v>
-      </c>
-      <c r="AI12" s="0" t="n">
-        <v>71666.1</v>
-      </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AH12">
+        <v>61016.800000000003</v>
+      </c>
+      <c r="AI12">
+        <v>71666.100000000006</v>
+      </c>
+      <c r="AJ12">
         <v>27565.1</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AK12">
         <v>143694</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AL12">
         <v>109763</v>
       </c>
-      <c r="AM12" s="0" t="n">
-        <v>19448.6</v>
-      </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AM12">
+        <v>19448.599999999999</v>
+      </c>
+      <c r="AN12">
         <v>103480</v>
       </c>
-      <c r="AO12" s="0" t="n">
+      <c r="AO12">
         <v>372331</v>
       </c>
-      <c r="AP12" s="0" t="n">
+      <c r="AP12">
         <v>934965</v>
       </c>
-      <c r="AQ12" s="0" t="n">
+      <c r="AQ12">
         <v>299738</v>
       </c>
-      <c r="AR12" s="0" t="n">
+      <c r="AR12">
         <v>28848.1</v>
       </c>
-      <c r="AS12" s="0" t="n">
+      <c r="AS12">
         <v>99231.6</v>
       </c>
-      <c r="AT12" s="0" t="n">
+      <c r="AT12">
         <v>774945</v>
       </c>
-      <c r="AU12" s="0" t="n">
+      <c r="AU12">
         <v>39613.1</v>
       </c>
-      <c r="AV12" s="0" t="n">
+      <c r="AV12">
         <v>689720</v>
       </c>
-      <c r="AW12" s="0" t="n">
+      <c r="AW12">
         <v>773943</v>
       </c>
-      <c r="AX12" s="0" t="n">
+      <c r="AX12">
         <v>619791</v>
       </c>
-      <c r="AY12" s="0" t="n">
+      <c r="AY12">
         <v>47923.5</v>
       </c>
-      <c r="AZ12" s="0" t="n">
+      <c r="AZ12">
         <v>200623</v>
       </c>
-      <c r="BA12" s="0" t="n">
+      <c r="BA12">
         <v>237936</v>
       </c>
-      <c r="BB12" s="0" t="n">
+      <c r="BB12">
         <v>219477</v>
       </c>
-      <c r="BC12" s="0" t="n">
+      <c r="BC12">
         <v>184164</v>
       </c>
-      <c r="BD12" s="0" t="n">
+      <c r="BD12">
         <v>78748.7</v>
       </c>
-      <c r="BE12" s="0" t="n">
+      <c r="BE12">
         <v>58104.2</v>
       </c>
-      <c r="BF12" s="0" t="n">
+      <c r="BF12">
         <v>146223</v>
       </c>
-      <c r="BG12" s="0" t="n">
+      <c r="BG12">
         <v>48936.9</v>
       </c>
-      <c r="BH12" s="0" t="n">
+      <c r="BH12">
         <v>279742</v>
       </c>
-      <c r="BI12" s="0" t="n">
+      <c r="BI12">
         <v>365710</v>
       </c>
-      <c r="BJ12" s="0" t="n">
+      <c r="BJ12">
         <v>207919</v>
       </c>
-      <c r="BK12" s="0" t="n">
+      <c r="BK12">
         <v>222401</v>
       </c>
-      <c r="BL12" s="0" t="n">
+      <c r="BL12">
         <v>222974</v>
       </c>
-      <c r="BM12" s="0" t="n">
+      <c r="BM12">
         <v>477196</v>
       </c>
-      <c r="BN12" s="0" t="n">
+      <c r="BN12">
         <v>423271</v>
       </c>
-      <c r="BO12" s="0" t="n">
+      <c r="BO12">
         <v>216051</v>
       </c>
-      <c r="BP12" s="0" t="n">
+      <c r="BP12">
         <v>312565</v>
       </c>
-      <c r="BQ12" s="0" t="n">
+      <c r="BQ12">
         <v>103343</v>
       </c>
-      <c r="BR12" s="0" t="n">
+      <c r="BR12">
         <v>140595</v>
       </c>
-      <c r="BS12" s="0" t="n">
+      <c r="BS12">
         <v>435501</v>
       </c>
-      <c r="BT12" s="0" t="n">
+      <c r="BT12">
         <v>280027</v>
       </c>
-      <c r="BU12" s="0" t="n">
+      <c r="BU12">
         <v>61136.7</v>
       </c>
-      <c r="BV12" s="0" t="n">
+      <c r="BV12">
         <v>125267</v>
       </c>
-      <c r="BW12" s="0" t="n">
+      <c r="BW12">
         <v>136405</v>
       </c>
-      <c r="BX12" s="0" t="n">
+      <c r="BX12">
         <v>225762</v>
       </c>
-      <c r="BY12" s="0" t="n">
+      <c r="BY12">
         <v>264457</v>
       </c>
-      <c r="BZ12" s="0" t="n">
+      <c r="BZ12">
         <v>592833</v>
       </c>
-      <c r="CA12" s="0" t="n">
+      <c r="CA12">
         <v>508497</v>
       </c>
-      <c r="CB12" s="0" t="n">
+      <c r="CB12">
         <v>371526</v>
       </c>
-      <c r="CC12" s="0" t="n">
-        <v>28637.6</v>
-      </c>
-      <c r="CD12" s="0" t="n">
+      <c r="CC12">
+        <v>28637.599999999999</v>
+      </c>
+      <c r="CD12">
         <v>272165</v>
       </c>
-      <c r="CE12" s="0" t="n">
+      <c r="CE12">
         <v>434626</v>
       </c>
-      <c r="CF12" s="0" t="n">
+      <c r="CF12">
         <v>14864.6</v>
       </c>
-      <c r="CG12" s="0" t="n">
+      <c r="CG12">
         <v>259391</v>
       </c>
-      <c r="CH12" s="0" t="n">
+      <c r="CH12">
         <v>477525</v>
       </c>
-      <c r="CI12" s="0" t="n">
+      <c r="CI12">
         <v>9258.1</v>
       </c>
-      <c r="CJ12" s="0" t="n">
+      <c r="CJ12">
         <v>240501</v>
       </c>
-      <c r="CK12" s="0" t="n">
+      <c r="CK12">
         <v>984358</v>
       </c>
-      <c r="CL12" s="0" t="n">
+      <c r="CL12">
         <v>493627</v>
       </c>
-      <c r="CM12" s="0" t="n">
+      <c r="CM12">
         <v>102690</v>
       </c>
-      <c r="CN12" s="0" t="n">
+      <c r="CN12">
         <v>858793</v>
       </c>
-      <c r="CO12" s="0" t="n">
+      <c r="CO12">
         <v>297041</v>
       </c>
-      <c r="CP12" s="0" t="n">
+      <c r="CP12">
         <v>710705</v>
       </c>
-      <c r="CQ12" s="0" t="n">
+      <c r="CQ12">
         <v>716775</v>
       </c>
-      <c r="CR12" s="0" t="n">
+      <c r="CR12">
         <v>43010.5</v>
       </c>
-      <c r="CS12" s="0" t="n">
+      <c r="CS12">
         <v>748124</v>
       </c>
-      <c r="CT12" s="0" t="n">
+      <c r="CT12">
         <v>746153</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>80</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>191858</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>81329.3</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>188291</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>223260</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>228377</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <v>73621.4</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>10099.3</v>
-      </c>
-      <c r="I13" s="0" t="n">
+      <c r="G13">
+        <v>73621.399999999994</v>
+      </c>
+      <c r="H13">
+        <v>10099.299999999999</v>
+      </c>
+      <c r="I13">
         <v>61818.1</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13">
         <v>231871</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13">
         <v>24609.9</v>
       </c>
-      <c r="L13" s="0" t="n">
-        <v>18473.4</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>55576.8</v>
-      </c>
-      <c r="N13" s="0" t="n">
+      <c r="L13">
+        <v>18473.400000000001</v>
+      </c>
+      <c r="M13">
+        <v>55576.800000000003</v>
+      </c>
+      <c r="N13">
         <v>3700.86</v>
       </c>
-      <c r="O13" s="0" t="n">
-        <v>49625.6</v>
-      </c>
-      <c r="P13" s="0" t="n">
+      <c r="O13">
+        <v>49625.599999999999</v>
+      </c>
+      <c r="P13">
         <v>60877.7</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13">
         <v>35773.1</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="R13">
         <v>14529.6</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="S13">
         <v>20267.8</v>
       </c>
-      <c r="T13" s="0" t="n">
-        <v>34826.2</v>
-      </c>
-      <c r="U13" s="0" t="n">
+      <c r="T13">
+        <v>34826.199999999997</v>
+      </c>
+      <c r="U13">
         <v>87613.6</v>
       </c>
-      <c r="V13" s="0" t="n">
-        <v>82863.9</v>
-      </c>
-      <c r="W13" s="0" t="n">
+      <c r="V13">
+        <v>82863.899999999994</v>
+      </c>
+      <c r="W13">
         <v>103618</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="X13">
         <v>33720.1</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Y13">
         <v>104278</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="Z13">
         <v>55744.3</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AA13">
         <v>16033.5</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AB13">
         <v>52231.4</v>
       </c>
-      <c r="AC13" s="0" t="n">
-        <v>53512.8</v>
-      </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AC13">
+        <v>53512.800000000003</v>
+      </c>
+      <c r="AD13">
         <v>67837.3</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AE13">
         <v>142030</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AF13">
         <v>188444</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AG13">
         <v>94148.3</v>
       </c>
-      <c r="AH13" s="0" t="n">
-        <v>61016.8</v>
-      </c>
-      <c r="AI13" s="0" t="n">
-        <v>71666.1</v>
-      </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AH13">
+        <v>61016.800000000003</v>
+      </c>
+      <c r="AI13">
+        <v>71666.100000000006</v>
+      </c>
+      <c r="AJ13">
         <v>27565.1</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AK13">
         <v>143694</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AL13">
         <v>109763</v>
       </c>
-      <c r="AM13" s="0" t="n">
-        <v>19448.6</v>
-      </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AM13">
+        <v>19448.599999999999</v>
+      </c>
+      <c r="AN13">
         <v>103480</v>
       </c>
-      <c r="AO13" s="0" t="n">
+      <c r="AO13">
         <v>372331</v>
       </c>
-      <c r="AP13" s="0" t="n">
+      <c r="AP13">
         <v>934965</v>
       </c>
-      <c r="AQ13" s="0" t="n">
+      <c r="AQ13">
         <v>299738</v>
       </c>
-      <c r="AR13" s="0" t="n">
+      <c r="AR13">
         <v>28848.1</v>
       </c>
-      <c r="AS13" s="0" t="n">
+      <c r="AS13">
         <v>99231.6</v>
       </c>
-      <c r="AT13" s="0" t="n">
+      <c r="AT13">
         <v>774945</v>
       </c>
-      <c r="AU13" s="0" t="n">
+      <c r="AU13">
         <v>39613.1</v>
       </c>
-      <c r="AV13" s="0" t="n">
+      <c r="AV13">
         <v>689720</v>
       </c>
-      <c r="AW13" s="0" t="n">
+      <c r="AW13">
         <v>773943</v>
       </c>
-      <c r="AX13" s="0" t="n">
+      <c r="AX13">
         <v>619791</v>
       </c>
-      <c r="AY13" s="0" t="n">
+      <c r="AY13">
         <v>47923.5</v>
       </c>
-      <c r="AZ13" s="0" t="n">
+      <c r="AZ13">
         <v>200623</v>
       </c>
-      <c r="BA13" s="0" t="n">
+      <c r="BA13">
         <v>237936</v>
       </c>
-      <c r="BB13" s="0" t="n">
+      <c r="BB13">
         <v>219477</v>
       </c>
-      <c r="BC13" s="0" t="n">
+      <c r="BC13">
         <v>184164</v>
       </c>
-      <c r="BD13" s="0" t="n">
+      <c r="BD13">
         <v>78748.7</v>
       </c>
-      <c r="BE13" s="0" t="n">
+      <c r="BE13">
         <v>58104.2</v>
       </c>
-      <c r="BF13" s="0" t="n">
+      <c r="BF13">
         <v>146223</v>
       </c>
-      <c r="BG13" s="0" t="n">
+      <c r="BG13">
         <v>48936.9</v>
       </c>
-      <c r="BH13" s="0" t="n">
+      <c r="BH13">
         <v>279742</v>
       </c>
-      <c r="BI13" s="0" t="n">
+      <c r="BI13">
         <v>365710</v>
       </c>
-      <c r="BJ13" s="0" t="n">
+      <c r="BJ13">
         <v>207919</v>
       </c>
-      <c r="BK13" s="0" t="n">
+      <c r="BK13">
         <v>222401</v>
       </c>
-      <c r="BL13" s="0" t="n">
+      <c r="BL13">
         <v>222974</v>
       </c>
-      <c r="BM13" s="0" t="n">
+      <c r="BM13">
         <v>477196</v>
       </c>
-      <c r="BN13" s="0" t="n">
+      <c r="BN13">
         <v>423271</v>
       </c>
-      <c r="BO13" s="0" t="n">
+      <c r="BO13">
         <v>216051</v>
       </c>
-      <c r="BP13" s="0" t="n">
+      <c r="BP13">
         <v>312565</v>
       </c>
-      <c r="BQ13" s="0" t="n">
+      <c r="BQ13">
         <v>103343</v>
       </c>
-      <c r="BR13" s="0" t="n">
+      <c r="BR13">
         <v>140595</v>
       </c>
-      <c r="BS13" s="0" t="n">
+      <c r="BS13">
         <v>435501</v>
       </c>
-      <c r="BT13" s="0" t="n">
+      <c r="BT13">
         <v>280027</v>
       </c>
-      <c r="BU13" s="0" t="n">
+      <c r="BU13">
         <v>61136.7</v>
       </c>
-      <c r="BV13" s="0" t="n">
+      <c r="BV13">
         <v>125267</v>
       </c>
-      <c r="BW13" s="0" t="n">
+      <c r="BW13">
         <v>136405</v>
       </c>
-      <c r="BX13" s="0" t="n">
+      <c r="BX13">
         <v>225762</v>
       </c>
-      <c r="BY13" s="0" t="n">
+      <c r="BY13">
         <v>264457</v>
       </c>
-      <c r="BZ13" s="0" t="n">
+      <c r="BZ13">
         <v>592833</v>
       </c>
-      <c r="CA13" s="0" t="n">
+      <c r="CA13">
         <v>508497</v>
       </c>
-      <c r="CB13" s="0" t="n">
+      <c r="CB13">
         <v>371526</v>
       </c>
-      <c r="CC13" s="0" t="n">
-        <v>28637.6</v>
-      </c>
-      <c r="CD13" s="0" t="n">
+      <c r="CC13">
+        <v>28637.599999999999</v>
+      </c>
+      <c r="CD13">
         <v>272165</v>
       </c>
-      <c r="CE13" s="0" t="n">
+      <c r="CE13">
         <v>434626</v>
       </c>
-      <c r="CF13" s="0" t="n">
+      <c r="CF13">
         <v>14864.6</v>
       </c>
-      <c r="CG13" s="0" t="n">
+      <c r="CG13">
         <v>259391</v>
       </c>
-      <c r="CH13" s="0" t="n">
+      <c r="CH13">
         <v>477525</v>
       </c>
-      <c r="CI13" s="0" t="n">
+      <c r="CI13">
         <v>9258.1</v>
       </c>
-      <c r="CJ13" s="0" t="n">
+      <c r="CJ13">
         <v>240501</v>
       </c>
-      <c r="CK13" s="0" t="n">
+      <c r="CK13">
         <v>984358</v>
       </c>
-      <c r="CL13" s="0" t="n">
+      <c r="CL13">
         <v>493627</v>
       </c>
-      <c r="CM13" s="0" t="n">
+      <c r="CM13">
         <v>102690</v>
       </c>
-      <c r="CN13" s="0" t="n">
+      <c r="CN13">
         <v>858793</v>
       </c>
-      <c r="CO13" s="0" t="n">
+      <c r="CO13">
         <v>297041</v>
       </c>
-      <c r="CP13" s="0" t="n">
+      <c r="CP13">
         <v>710705</v>
       </c>
-      <c r="CQ13" s="0" t="n">
+      <c r="CQ13">
         <v>716775</v>
       </c>
-      <c r="CR13" s="0" t="n">
+      <c r="CR13">
         <v>43010.5</v>
       </c>
-      <c r="CS13" s="0" t="n">
+      <c r="CS13">
         <v>748124</v>
       </c>
-      <c r="CT13" s="0" t="n">
+      <c r="CT13">
         <v>746153</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>90</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>191858</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>81329.3</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>188291</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>223260</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>228377</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <v>73621.4</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>10099.3</v>
-      </c>
-      <c r="I14" s="0" t="n">
+      <c r="G14">
+        <v>73621.399999999994</v>
+      </c>
+      <c r="H14">
+        <v>10099.299999999999</v>
+      </c>
+      <c r="I14">
         <v>61818.1</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14">
         <v>231871</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14">
         <v>24609.9</v>
       </c>
-      <c r="L14" s="0" t="n">
-        <v>18473.4</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>55576.8</v>
-      </c>
-      <c r="N14" s="0" t="n">
+      <c r="L14">
+        <v>18473.400000000001</v>
+      </c>
+      <c r="M14">
+        <v>55576.800000000003</v>
+      </c>
+      <c r="N14">
         <v>3700.86</v>
       </c>
-      <c r="O14" s="0" t="n">
-        <v>49625.6</v>
-      </c>
-      <c r="P14" s="0" t="n">
+      <c r="O14">
+        <v>49625.599999999999</v>
+      </c>
+      <c r="P14">
         <v>60877.7</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14">
         <v>35773.1</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14">
         <v>14529.6</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="S14">
         <v>20267.8</v>
       </c>
-      <c r="T14" s="0" t="n">
-        <v>34826.2</v>
-      </c>
-      <c r="U14" s="0" t="n">
+      <c r="T14">
+        <v>34826.199999999997</v>
+      </c>
+      <c r="U14">
         <v>87613.6</v>
       </c>
-      <c r="V14" s="0" t="n">
-        <v>82863.9</v>
-      </c>
-      <c r="W14" s="0" t="n">
+      <c r="V14">
+        <v>82863.899999999994</v>
+      </c>
+      <c r="W14">
         <v>103618</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="X14">
         <v>33720.1</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Y14">
         <v>104278</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="Z14">
         <v>55744.3</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AA14">
         <v>16033.5</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AB14">
         <v>52231.4</v>
       </c>
-      <c r="AC14" s="0" t="n">
-        <v>53512.8</v>
-      </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AC14">
+        <v>53512.800000000003</v>
+      </c>
+      <c r="AD14">
         <v>67837.3</v>
       </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AE14">
         <v>142030</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AF14">
         <v>188444</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AG14">
         <v>94148.3</v>
       </c>
-      <c r="AH14" s="0" t="n">
-        <v>61016.8</v>
-      </c>
-      <c r="AI14" s="0" t="n">
-        <v>71666.1</v>
-      </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AH14">
+        <v>61016.800000000003</v>
+      </c>
+      <c r="AI14">
+        <v>71666.100000000006</v>
+      </c>
+      <c r="AJ14">
         <v>27565.1</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AK14">
         <v>143694</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AL14">
         <v>109763</v>
       </c>
-      <c r="AM14" s="0" t="n">
-        <v>19448.6</v>
-      </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AM14">
+        <v>19448.599999999999</v>
+      </c>
+      <c r="AN14">
         <v>103480</v>
       </c>
-      <c r="AO14" s="0" t="n">
+      <c r="AO14">
         <v>372331</v>
       </c>
-      <c r="AP14" s="0" t="n">
+      <c r="AP14">
         <v>934965</v>
       </c>
-      <c r="AQ14" s="0" t="n">
+      <c r="AQ14">
         <v>299738</v>
       </c>
-      <c r="AR14" s="0" t="n">
+      <c r="AR14">
         <v>28848.1</v>
       </c>
-      <c r="AS14" s="0" t="n">
+      <c r="AS14">
         <v>99231.6</v>
       </c>
-      <c r="AT14" s="0" t="n">
+      <c r="AT14">
         <v>774945</v>
       </c>
-      <c r="AU14" s="0" t="n">
+      <c r="AU14">
         <v>39613.1</v>
       </c>
-      <c r="AV14" s="0" t="n">
+      <c r="AV14">
         <v>689720</v>
       </c>
-      <c r="AW14" s="0" t="n">
+      <c r="AW14">
         <v>773943</v>
       </c>
-      <c r="AX14" s="0" t="n">
+      <c r="AX14">
         <v>619791</v>
       </c>
-      <c r="AY14" s="0" t="n">
+      <c r="AY14">
         <v>47923.5</v>
       </c>
-      <c r="AZ14" s="0" t="n">
+      <c r="AZ14">
         <v>200623</v>
       </c>
-      <c r="BA14" s="0" t="n">
+      <c r="BA14">
         <v>237936</v>
       </c>
-      <c r="BB14" s="0" t="n">
+      <c r="BB14">
         <v>219477</v>
       </c>
-      <c r="BC14" s="0" t="n">
+      <c r="BC14">
         <v>184164</v>
       </c>
-      <c r="BD14" s="0" t="n">
+      <c r="BD14">
         <v>78748.7</v>
       </c>
-      <c r="BE14" s="0" t="n">
+      <c r="BE14">
         <v>58104.2</v>
       </c>
-      <c r="BF14" s="0" t="n">
+      <c r="BF14">
         <v>146223</v>
       </c>
-      <c r="BG14" s="0" t="n">
+      <c r="BG14">
         <v>48936.9</v>
       </c>
-      <c r="BH14" s="0" t="n">
+      <c r="BH14">
         <v>279742</v>
       </c>
-      <c r="BI14" s="0" t="n">
+      <c r="BI14">
         <v>365710</v>
       </c>
-      <c r="BJ14" s="0" t="n">
+      <c r="BJ14">
         <v>207919</v>
       </c>
-      <c r="BK14" s="0" t="n">
+      <c r="BK14">
         <v>222401</v>
       </c>
-      <c r="BL14" s="0" t="n">
+      <c r="BL14">
         <v>222974</v>
       </c>
-      <c r="BM14" s="0" t="n">
+      <c r="BM14">
         <v>477196</v>
       </c>
-      <c r="BN14" s="0" t="n">
+      <c r="BN14">
         <v>423271</v>
       </c>
-      <c r="BO14" s="0" t="n">
+      <c r="BO14">
         <v>216051</v>
       </c>
-      <c r="BP14" s="0" t="n">
+      <c r="BP14">
         <v>312565</v>
       </c>
-      <c r="BQ14" s="0" t="n">
+      <c r="BQ14">
         <v>103343</v>
       </c>
-      <c r="BR14" s="0" t="n">
+      <c r="BR14">
         <v>140595</v>
       </c>
-      <c r="BS14" s="0" t="n">
+      <c r="BS14">
         <v>435501</v>
       </c>
-      <c r="BT14" s="0" t="n">
+      <c r="BT14">
         <v>280027</v>
       </c>
-      <c r="BU14" s="0" t="n">
+      <c r="BU14">
         <v>61136.7</v>
       </c>
-      <c r="BV14" s="0" t="n">
+      <c r="BV14">
         <v>125267</v>
       </c>
-      <c r="BW14" s="0" t="n">
+      <c r="BW14">
         <v>136405</v>
       </c>
-      <c r="BX14" s="0" t="n">
+      <c r="BX14">
         <v>225762</v>
       </c>
-      <c r="BY14" s="0" t="n">
+      <c r="BY14">
         <v>264457</v>
       </c>
-      <c r="BZ14" s="0" t="n">
+      <c r="BZ14">
         <v>592833</v>
       </c>
-      <c r="CA14" s="0" t="n">
+      <c r="CA14">
         <v>508497</v>
       </c>
-      <c r="CB14" s="0" t="n">
+      <c r="CB14">
         <v>371526</v>
       </c>
-      <c r="CC14" s="0" t="n">
-        <v>28637.6</v>
-      </c>
-      <c r="CD14" s="0" t="n">
+      <c r="CC14">
+        <v>28637.599999999999</v>
+      </c>
+      <c r="CD14">
         <v>272165</v>
       </c>
-      <c r="CE14" s="0" t="n">
+      <c r="CE14">
         <v>434626</v>
       </c>
-      <c r="CF14" s="0" t="n">
+      <c r="CF14">
         <v>14864.6</v>
       </c>
-      <c r="CG14" s="0" t="n">
+      <c r="CG14">
         <v>259391</v>
       </c>
-      <c r="CH14" s="0" t="n">
+      <c r="CH14">
         <v>477525</v>
       </c>
-      <c r="CI14" s="0" t="n">
+      <c r="CI14">
         <v>9258.1</v>
       </c>
-      <c r="CJ14" s="0" t="n">
+      <c r="CJ14">
         <v>240501</v>
       </c>
-      <c r="CK14" s="0" t="n">
+      <c r="CK14">
         <v>984358</v>
       </c>
-      <c r="CL14" s="0" t="n">
+      <c r="CL14">
         <v>493627</v>
       </c>
-      <c r="CM14" s="0" t="n">
+      <c r="CM14">
         <v>102690</v>
       </c>
-      <c r="CN14" s="0" t="n">
+      <c r="CN14">
         <v>858793</v>
       </c>
-      <c r="CO14" s="0" t="n">
+      <c r="CO14">
         <v>297041</v>
       </c>
-      <c r="CP14" s="0" t="n">
+      <c r="CP14">
         <v>710705</v>
       </c>
-      <c r="CQ14" s="0" t="n">
+      <c r="CQ14">
         <v>716775</v>
       </c>
-      <c r="CR14" s="0" t="n">
+      <c r="CR14">
         <v>43010.5</v>
       </c>
-      <c r="CS14" s="0" t="n">
+      <c r="CS14">
         <v>748124</v>
       </c>
-      <c r="CT14" s="0" t="n">
+      <c r="CT14">
         <v>746153</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>100</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>191858</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>81329.3</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>188291</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>223260</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>228377</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <v>73621.4</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>10099.3</v>
-      </c>
-      <c r="I15" s="0" t="n">
+      <c r="G15">
+        <v>73621.399999999994</v>
+      </c>
+      <c r="H15">
+        <v>10099.299999999999</v>
+      </c>
+      <c r="I15">
         <v>61818.1</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15">
         <v>231871</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15">
         <v>24609.9</v>
       </c>
-      <c r="L15" s="0" t="n">
-        <v>18473.4</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>55576.8</v>
-      </c>
-      <c r="N15" s="0" t="n">
+      <c r="L15">
+        <v>18473.400000000001</v>
+      </c>
+      <c r="M15">
+        <v>55576.800000000003</v>
+      </c>
+      <c r="N15">
         <v>3700.86</v>
       </c>
-      <c r="O15" s="0" t="n">
-        <v>49625.6</v>
-      </c>
-      <c r="P15" s="0" t="n">
+      <c r="O15">
+        <v>49625.599999999999</v>
+      </c>
+      <c r="P15">
         <v>60877.7</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15">
         <v>35773.1</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="R15">
         <v>14529.6</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="S15">
         <v>20267.8</v>
       </c>
-      <c r="T15" s="0" t="n">
-        <v>34826.2</v>
-      </c>
-      <c r="U15" s="0" t="n">
+      <c r="T15">
+        <v>34826.199999999997</v>
+      </c>
+      <c r="U15">
         <v>87613.6</v>
       </c>
-      <c r="V15" s="0" t="n">
-        <v>82863.9</v>
-      </c>
-      <c r="W15" s="0" t="n">
+      <c r="V15">
+        <v>82863.899999999994</v>
+      </c>
+      <c r="W15">
         <v>103618</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="X15">
         <v>33720.1</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Y15">
         <v>104278</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="Z15">
         <v>55744.3</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AA15">
         <v>16033.5</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AB15">
         <v>52231.4</v>
       </c>
-      <c r="AC15" s="0" t="n">
-        <v>53512.8</v>
-      </c>
-      <c r="AD15" s="0" t="n">
+      <c r="AC15">
+        <v>53512.800000000003</v>
+      </c>
+      <c r="AD15">
         <v>67837.3</v>
       </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AE15">
         <v>142030</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AF15">
         <v>188444</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AG15">
         <v>94148.3</v>
       </c>
-      <c r="AH15" s="0" t="n">
-        <v>61016.8</v>
-      </c>
-      <c r="AI15" s="0" t="n">
-        <v>71666.1</v>
-      </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AH15">
+        <v>61016.800000000003</v>
+      </c>
+      <c r="AI15">
+        <v>71666.100000000006</v>
+      </c>
+      <c r="AJ15">
         <v>27565.1</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AK15">
         <v>143694</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AL15">
         <v>109763</v>
       </c>
-      <c r="AM15" s="0" t="n">
-        <v>19448.6</v>
-      </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AM15">
+        <v>19448.599999999999</v>
+      </c>
+      <c r="AN15">
         <v>103480</v>
       </c>
-      <c r="AO15" s="0" t="n">
+      <c r="AO15">
         <v>372331</v>
       </c>
-      <c r="AP15" s="0" t="n">
+      <c r="AP15">
         <v>934965</v>
       </c>
-      <c r="AQ15" s="0" t="n">
+      <c r="AQ15">
         <v>299738</v>
       </c>
-      <c r="AR15" s="0" t="n">
+      <c r="AR15">
         <v>28848.1</v>
       </c>
-      <c r="AS15" s="0" t="n">
+      <c r="AS15">
         <v>99231.6</v>
       </c>
-      <c r="AT15" s="0" t="n">
+      <c r="AT15">
         <v>774945</v>
       </c>
-      <c r="AU15" s="0" t="n">
+      <c r="AU15">
         <v>39613.1</v>
       </c>
-      <c r="AV15" s="0" t="n">
+      <c r="AV15">
         <v>689720</v>
       </c>
-      <c r="AW15" s="0" t="n">
+      <c r="AW15">
         <v>773943</v>
       </c>
-      <c r="AX15" s="0" t="n">
+      <c r="AX15">
         <v>619791</v>
       </c>
-      <c r="AY15" s="0" t="n">
+      <c r="AY15">
         <v>47923.5</v>
       </c>
-      <c r="AZ15" s="0" t="n">
+      <c r="AZ15">
         <v>200623</v>
       </c>
-      <c r="BA15" s="0" t="n">
+      <c r="BA15">
         <v>237936</v>
       </c>
-      <c r="BB15" s="0" t="n">
+      <c r="BB15">
         <v>219477</v>
       </c>
-      <c r="BC15" s="0" t="n">
+      <c r="BC15">
         <v>184164</v>
       </c>
-      <c r="BD15" s="0" t="n">
+      <c r="BD15">
         <v>78748.7</v>
       </c>
-      <c r="BE15" s="0" t="n">
+      <c r="BE15">
         <v>58104.2</v>
       </c>
-      <c r="BF15" s="0" t="n">
+      <c r="BF15">
         <v>146223</v>
       </c>
-      <c r="BG15" s="0" t="n">
+      <c r="BG15">
         <v>48936.9</v>
       </c>
-      <c r="BH15" s="0" t="n">
+      <c r="BH15">
         <v>279742</v>
       </c>
-      <c r="BI15" s="0" t="n">
+      <c r="BI15">
         <v>365710</v>
       </c>
-      <c r="BJ15" s="0" t="n">
+      <c r="BJ15">
         <v>207919</v>
       </c>
-      <c r="BK15" s="0" t="n">
+      <c r="BK15">
         <v>222401</v>
       </c>
-      <c r="BL15" s="0" t="n">
+      <c r="BL15">
         <v>222974</v>
       </c>
-      <c r="BM15" s="0" t="n">
+      <c r="BM15">
         <v>477196</v>
       </c>
-      <c r="BN15" s="0" t="n">
+      <c r="BN15">
         <v>423271</v>
       </c>
-      <c r="BO15" s="0" t="n">
+      <c r="BO15">
         <v>216051</v>
       </c>
-      <c r="BP15" s="0" t="n">
+      <c r="BP15">
         <v>312565</v>
       </c>
-      <c r="BQ15" s="0" t="n">
+      <c r="BQ15">
         <v>103343</v>
       </c>
-      <c r="BR15" s="0" t="n">
+      <c r="BR15">
         <v>140595</v>
       </c>
-      <c r="BS15" s="0" t="n">
+      <c r="BS15">
         <v>435501</v>
       </c>
-      <c r="BT15" s="0" t="n">
+      <c r="BT15">
         <v>280027</v>
       </c>
-      <c r="BU15" s="0" t="n">
+      <c r="BU15">
         <v>61136.7</v>
       </c>
-      <c r="BV15" s="0" t="n">
+      <c r="BV15">
         <v>125267</v>
       </c>
-      <c r="BW15" s="0" t="n">
+      <c r="BW15">
         <v>136405</v>
       </c>
-      <c r="BX15" s="0" t="n">
+      <c r="BX15">
         <v>225762</v>
       </c>
-      <c r="BY15" s="0" t="n">
+      <c r="BY15">
         <v>264457</v>
       </c>
-      <c r="BZ15" s="0" t="n">
+      <c r="BZ15">
         <v>592833</v>
       </c>
-      <c r="CA15" s="0" t="n">
+      <c r="CA15">
         <v>508497</v>
       </c>
-      <c r="CB15" s="0" t="n">
+      <c r="CB15">
         <v>371526</v>
       </c>
-      <c r="CC15" s="0" t="n">
-        <v>28637.6</v>
-      </c>
-      <c r="CD15" s="0" t="n">
+      <c r="CC15">
+        <v>28637.599999999999</v>
+      </c>
+      <c r="CD15">
         <v>272165</v>
       </c>
-      <c r="CE15" s="0" t="n">
+      <c r="CE15">
         <v>434626</v>
       </c>
-      <c r="CF15" s="0" t="n">
+      <c r="CF15">
         <v>14864.6</v>
       </c>
-      <c r="CG15" s="0" t="n">
+      <c r="CG15">
         <v>259391</v>
       </c>
-      <c r="CH15" s="0" t="n">
+      <c r="CH15">
         <v>477525</v>
       </c>
-      <c r="CI15" s="0" t="n">
+      <c r="CI15">
         <v>9258.1</v>
       </c>
-      <c r="CJ15" s="0" t="n">
+      <c r="CJ15">
         <v>240501</v>
       </c>
-      <c r="CK15" s="0" t="n">
+      <c r="CK15">
         <v>984358</v>
       </c>
-      <c r="CL15" s="0" t="n">
+      <c r="CL15">
         <v>493627</v>
       </c>
-      <c r="CM15" s="0" t="n">
+      <c r="CM15">
         <v>102690</v>
       </c>
-      <c r="CN15" s="0" t="n">
+      <c r="CN15">
         <v>858793</v>
       </c>
-      <c r="CO15" s="0" t="n">
+      <c r="CO15">
         <v>297041</v>
       </c>
-      <c r="CP15" s="0" t="n">
+      <c r="CP15">
         <v>710705</v>
       </c>
-      <c r="CQ15" s="0" t="n">
+      <c r="CQ15">
         <v>716775</v>
       </c>
-      <c r="CR15" s="0" t="n">
+      <c r="CR15">
         <v>43010.5</v>
       </c>
-      <c r="CS15" s="0" t="n">
+      <c r="CS15">
         <v>748124</v>
       </c>
-      <c r="CT15" s="0" t="n">
+      <c r="CT15">
         <v>746153</v>
       </c>
+    </row>
+    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
